--- a/data/PAM_metadata.xlsx
+++ b/data/PAM_metadata.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F158B9F-029D-4D40-86A6-7CA6CA91331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayle/Desktop/Projects/GT23_Heat_Microbiome/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987E3C4D-14A1-7C48-8B88-0DA2A1A6367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="460" windowWidth="21360" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="110">
   <si>
     <t>Date:</t>
   </si>
@@ -325,13 +330,46 @@
   </si>
   <si>
     <t>128?-8</t>
+  </si>
+  <si>
+    <t>127X-7</t>
+  </si>
+  <si>
+    <t>12XX-2</t>
+  </si>
+  <si>
+    <t>1283-X</t>
+  </si>
+  <si>
+    <t>12XX-X</t>
+  </si>
+  <si>
+    <t>12XX-11</t>
+  </si>
+  <si>
+    <t>severe tissue loss across all but 1</t>
+  </si>
+  <si>
+    <t>87X-5</t>
+  </si>
+  <si>
+    <t>12X1-7</t>
+  </si>
+  <si>
+    <t>8XX-6</t>
+  </si>
+  <si>
+    <t>871-X</t>
+  </si>
+  <si>
+    <t>128X-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,18 +715,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F409"/>
+  <dimension ref="A1:F546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="A364" sqref="A364:A409"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505:A546"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45061</v>
       </c>
@@ -725,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45061</v>
       </c>
@@ -742,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45061</v>
       </c>
@@ -759,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45061</v>
       </c>
@@ -776,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45061</v>
       </c>
@@ -793,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45061</v>
       </c>
@@ -810,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45061</v>
       </c>
@@ -827,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45061</v>
       </c>
@@ -844,7 +882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45061</v>
       </c>
@@ -861,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45061</v>
       </c>
@@ -878,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45061</v>
       </c>
@@ -895,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45061</v>
       </c>
@@ -912,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45061</v>
       </c>
@@ -929,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45061</v>
       </c>
@@ -946,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45061</v>
       </c>
@@ -963,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45061</v>
       </c>
@@ -980,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45061</v>
       </c>
@@ -997,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45061</v>
       </c>
@@ -1014,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45061</v>
       </c>
@@ -1031,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45061</v>
       </c>
@@ -1048,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45061</v>
       </c>
@@ -1065,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45061</v>
       </c>
@@ -1082,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45061</v>
       </c>
@@ -1099,7 +1137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45061</v>
       </c>
@@ -1116,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45061</v>
       </c>
@@ -1133,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45061</v>
       </c>
@@ -1150,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45061</v>
       </c>
@@ -1167,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45061</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45061</v>
       </c>
@@ -1201,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45061</v>
       </c>
@@ -1218,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45061</v>
       </c>
@@ -1235,7 +1273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45061</v>
       </c>
@@ -1252,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45061</v>
       </c>
@@ -1269,7 +1307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45061</v>
       </c>
@@ -1286,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45061</v>
       </c>
@@ -1303,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45061</v>
       </c>
@@ -1320,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45061</v>
       </c>
@@ -1337,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45061</v>
       </c>
@@ -1354,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45061</v>
       </c>
@@ -1371,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45061</v>
       </c>
@@ -1388,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45061</v>
       </c>
@@ -1408,7 +1446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45061</v>
       </c>
@@ -1425,7 +1463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45061</v>
       </c>
@@ -1442,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45061</v>
       </c>
@@ -1459,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45061</v>
       </c>
@@ -1476,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45061</v>
       </c>
@@ -1493,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45061</v>
       </c>
@@ -1510,7 +1548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45061</v>
       </c>
@@ -1530,7 +1568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45061</v>
       </c>
@@ -1547,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45061</v>
       </c>
@@ -1564,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45061</v>
       </c>
@@ -1581,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45061</v>
       </c>
@@ -1598,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1615,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45061</v>
       </c>
@@ -1632,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45061</v>
       </c>
@@ -1649,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45061</v>
       </c>
@@ -1666,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45061</v>
       </c>
@@ -1683,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45061</v>
       </c>
@@ -1700,7 +1738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45061</v>
       </c>
@@ -1717,7 +1755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45061</v>
       </c>
@@ -1734,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45061</v>
       </c>
@@ -1751,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45061</v>
       </c>
@@ -1768,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45061</v>
       </c>
@@ -1785,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45061</v>
       </c>
@@ -1802,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45061</v>
       </c>
@@ -1819,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45061</v>
       </c>
@@ -1836,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45061</v>
       </c>
@@ -1853,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45061</v>
       </c>
@@ -1870,7 +1908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45061</v>
       </c>
@@ -1887,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45061</v>
       </c>
@@ -1904,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45061</v>
       </c>
@@ -1921,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45061</v>
       </c>
@@ -1938,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45061</v>
       </c>
@@ -1955,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45061</v>
       </c>
@@ -1972,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45061</v>
       </c>
@@ -1992,7 +2030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45061</v>
       </c>
@@ -2009,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45061</v>
       </c>
@@ -2029,7 +2067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45061</v>
       </c>
@@ -2046,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45061</v>
       </c>
@@ -2066,7 +2104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45061</v>
       </c>
@@ -2083,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45061</v>
       </c>
@@ -2100,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45061</v>
       </c>
@@ -2120,7 +2158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45061</v>
       </c>
@@ -2137,7 +2175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45061</v>
       </c>
@@ -2154,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45061</v>
       </c>
@@ -2171,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45061</v>
       </c>
@@ -2188,7 +2226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45061</v>
       </c>
@@ -2205,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45061</v>
       </c>
@@ -2222,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45061</v>
       </c>
@@ -2239,7 +2277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45061</v>
       </c>
@@ -2256,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>45061</v>
       </c>
@@ -2273,7 +2311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45061</v>
       </c>
@@ -2290,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45061</v>
       </c>
@@ -2307,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>45061</v>
       </c>
@@ -2324,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>45061</v>
       </c>
@@ -2341,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>45061</v>
       </c>
@@ -2358,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>45061</v>
       </c>
@@ -2375,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>45061</v>
       </c>
@@ -2392,7 +2430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>45061</v>
       </c>
@@ -2409,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>45061</v>
       </c>
@@ -2426,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>45061</v>
       </c>
@@ -2443,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>45061</v>
       </c>
@@ -2460,7 +2498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>45061</v>
       </c>
@@ -2477,7 +2515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>45061</v>
       </c>
@@ -2497,7 +2535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>45061</v>
       </c>
@@ -2514,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>45061</v>
       </c>
@@ -2531,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>45061</v>
       </c>
@@ -2551,7 +2589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>45061</v>
       </c>
@@ -2568,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>45061</v>
       </c>
@@ -2585,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>45061</v>
       </c>
@@ -2602,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>45061</v>
       </c>
@@ -2619,7 +2657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>45061</v>
       </c>
@@ -2636,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>45061</v>
       </c>
@@ -2653,7 +2691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>45061</v>
       </c>
@@ -2670,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>45061</v>
       </c>
@@ -2687,7 +2725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45061</v>
       </c>
@@ -2704,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45061</v>
       </c>
@@ -2721,7 +2759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45061</v>
       </c>
@@ -2738,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45061</v>
       </c>
@@ -2755,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45061</v>
       </c>
@@ -2772,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45061</v>
       </c>
@@ -2789,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>45061</v>
       </c>
@@ -2806,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45061</v>
       </c>
@@ -2823,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45061</v>
       </c>
@@ -2840,7 +2878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45061</v>
       </c>
@@ -2857,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45061</v>
       </c>
@@ -2874,7 +2912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45061</v>
       </c>
@@ -2891,7 +2929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>45061</v>
       </c>
@@ -2908,7 +2946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>45061</v>
       </c>
@@ -2925,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>45061</v>
       </c>
@@ -2942,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>45061</v>
       </c>
@@ -2959,7 +2997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>45061</v>
       </c>
@@ -2976,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>45061</v>
       </c>
@@ -2993,7 +3031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>45061</v>
       </c>
@@ -3010,7 +3048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>45061</v>
       </c>
@@ -3027,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>45061</v>
       </c>
@@ -3044,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>45061</v>
       </c>
@@ -3061,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>45061</v>
       </c>
@@ -3078,7 +3116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>45064</v>
       </c>
@@ -3095,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>45064</v>
       </c>
@@ -3112,7 +3150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>45064</v>
       </c>
@@ -3129,7 +3167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>45064</v>
       </c>
@@ -3146,7 +3184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>45064</v>
       </c>
@@ -3163,7 +3201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>45064</v>
       </c>
@@ -3180,7 +3218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>45064</v>
       </c>
@@ -3197,7 +3235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>45064</v>
       </c>
@@ -3214,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>45064</v>
       </c>
@@ -3231,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>45064</v>
       </c>
@@ -3248,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>45064</v>
       </c>
@@ -3265,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>45064</v>
       </c>
@@ -3282,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>45064</v>
       </c>
@@ -3299,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>45064</v>
       </c>
@@ -3316,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>45064</v>
       </c>
@@ -3333,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>45064</v>
       </c>
@@ -3350,7 +3388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>45064</v>
       </c>
@@ -3367,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>45064</v>
       </c>
@@ -3384,7 +3422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>45064</v>
       </c>
@@ -3401,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>45064</v>
       </c>
@@ -3418,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>45064</v>
       </c>
@@ -3435,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45064</v>
       </c>
@@ -3452,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>45064</v>
       </c>
@@ -3469,7 +3507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>45064</v>
       </c>
@@ -3486,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>45064</v>
       </c>
@@ -3503,7 +3541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>45064</v>
       </c>
@@ -3520,7 +3558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>45064</v>
       </c>
@@ -3537,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>45064</v>
       </c>
@@ -3554,7 +3592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>45064</v>
       </c>
@@ -3571,7 +3609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>45064</v>
       </c>
@@ -3588,7 +3626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>45064</v>
       </c>
@@ -3605,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>45064</v>
       </c>
@@ -3622,7 +3660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>45064</v>
       </c>
@@ -3639,7 +3677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>45064</v>
       </c>
@@ -3656,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>45064</v>
       </c>
@@ -3673,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>45064</v>
       </c>
@@ -3690,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>45064</v>
       </c>
@@ -3707,7 +3745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>45064</v>
       </c>
@@ -3724,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>45064</v>
       </c>
@@ -3741,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>45064</v>
       </c>
@@ -3758,7 +3796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>45064</v>
       </c>
@@ -3775,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>45064</v>
       </c>
@@ -3792,7 +3830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>45064</v>
       </c>
@@ -3809,7 +3847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>45064</v>
       </c>
@@ -3826,7 +3864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>45064</v>
       </c>
@@ -3843,7 +3881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>45064</v>
       </c>
@@ -3860,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>45064</v>
       </c>
@@ -3877,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>45064</v>
       </c>
@@ -3894,7 +3932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>45064</v>
       </c>
@@ -3911,7 +3949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>45064</v>
       </c>
@@ -3928,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>45064</v>
       </c>
@@ -3945,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>45064</v>
       </c>
@@ -3962,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>45064</v>
       </c>
@@ -3979,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>45064</v>
       </c>
@@ -3996,7 +4034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>45064</v>
       </c>
@@ -4013,7 +4051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>45064</v>
       </c>
@@ -4030,7 +4068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>45064</v>
       </c>
@@ -4047,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>45064</v>
       </c>
@@ -4064,7 +4102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>45064</v>
       </c>
@@ -4081,7 +4119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>45064</v>
       </c>
@@ -4098,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>45064</v>
       </c>
@@ -4115,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>45064</v>
       </c>
@@ -4132,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>45064</v>
       </c>
@@ -4149,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>45064</v>
       </c>
@@ -4166,7 +4204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>45064</v>
       </c>
@@ -4183,7 +4221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>45064</v>
       </c>
@@ -4200,7 +4238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>45064</v>
       </c>
@@ -4217,7 +4255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>45064</v>
       </c>
@@ -4234,7 +4272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>45064</v>
       </c>
@@ -4251,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>45064</v>
       </c>
@@ -4268,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>45064</v>
       </c>
@@ -4285,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>45064</v>
       </c>
@@ -4302,7 +4340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>45064</v>
       </c>
@@ -4319,7 +4357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>45064</v>
       </c>
@@ -4336,7 +4374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>45064</v>
       </c>
@@ -4353,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>45064</v>
       </c>
@@ -4370,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>45064</v>
       </c>
@@ -4387,7 +4425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>45064</v>
       </c>
@@ -4404,7 +4442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>45064</v>
       </c>
@@ -4421,7 +4459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>45064</v>
       </c>
@@ -4438,7 +4476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>45064</v>
       </c>
@@ -4455,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>45064</v>
       </c>
@@ -4472,7 +4510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>45064</v>
       </c>
@@ -4489,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>45064</v>
       </c>
@@ -4506,7 +4544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>45064</v>
       </c>
@@ -4523,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>45064</v>
       </c>
@@ -4540,7 +4578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>45064</v>
       </c>
@@ -4557,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>45064</v>
       </c>
@@ -4574,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>45064</v>
       </c>
@@ -4591,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>45064</v>
       </c>
@@ -4608,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>45064</v>
       </c>
@@ -4625,7 +4663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>45064</v>
       </c>
@@ -4642,7 +4680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>45064</v>
       </c>
@@ -4659,7 +4697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>45064</v>
       </c>
@@ -4676,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>45064</v>
       </c>
@@ -4693,7 +4731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>45064</v>
       </c>
@@ -4710,7 +4748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>45064</v>
       </c>
@@ -4727,7 +4765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>45064</v>
       </c>
@@ -4744,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>45064</v>
       </c>
@@ -4761,7 +4799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>45064</v>
       </c>
@@ -4778,7 +4816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>45064</v>
       </c>
@@ -4795,7 +4833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>45064</v>
       </c>
@@ -4812,7 +4850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>45064</v>
       </c>
@@ -4829,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>45064</v>
       </c>
@@ -4846,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>45064</v>
       </c>
@@ -4863,7 +4901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>45064</v>
       </c>
@@ -4880,7 +4918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>45064</v>
       </c>
@@ -4897,7 +4935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>45064</v>
       </c>
@@ -4914,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>45064</v>
       </c>
@@ -4931,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>45064</v>
       </c>
@@ -4948,7 +4986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>45064</v>
       </c>
@@ -4965,7 +5003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>45064</v>
       </c>
@@ -4982,7 +5020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>45064</v>
       </c>
@@ -4999,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>45064</v>
       </c>
@@ -5016,7 +5054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>45064</v>
       </c>
@@ -5033,7 +5071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>45064</v>
       </c>
@@ -5050,7 +5088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>45064</v>
       </c>
@@ -5067,7 +5105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>45064</v>
       </c>
@@ -5084,7 +5122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>45064</v>
       </c>
@@ -5101,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>45064</v>
       </c>
@@ -5118,7 +5156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>45064</v>
       </c>
@@ -5135,7 +5173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>45064</v>
       </c>
@@ -5152,7 +5190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>45064</v>
       </c>
@@ -5169,7 +5207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>45064</v>
       </c>
@@ -5186,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>45064</v>
       </c>
@@ -5203,7 +5241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>45064</v>
       </c>
@@ -5220,7 +5258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>45064</v>
       </c>
@@ -5237,7 +5275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>45064</v>
       </c>
@@ -5254,7 +5292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>45064</v>
       </c>
@@ -5271,7 +5309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>45064</v>
       </c>
@@ -5288,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>45064</v>
       </c>
@@ -5305,7 +5343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>45064</v>
       </c>
@@ -5322,7 +5360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>45064</v>
       </c>
@@ -5339,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>45065</v>
       </c>
@@ -5356,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>45065</v>
       </c>
@@ -5373,7 +5411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>45065</v>
       </c>
@@ -5390,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>45065</v>
       </c>
@@ -5407,7 +5445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>45065</v>
       </c>
@@ -5424,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>45065</v>
       </c>
@@ -5441,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>45065</v>
       </c>
@@ -5458,7 +5496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>45065</v>
       </c>
@@ -5475,7 +5513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>45065</v>
       </c>
@@ -5492,7 +5530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>45065</v>
       </c>
@@ -5509,7 +5547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>45065</v>
       </c>
@@ -5526,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>45065</v>
       </c>
@@ -5543,7 +5581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>45065</v>
       </c>
@@ -5560,7 +5598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>45065</v>
       </c>
@@ -5577,7 +5615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>45065</v>
       </c>
@@ -5594,7 +5632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>45065</v>
       </c>
@@ -5611,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>45065</v>
       </c>
@@ -5628,7 +5666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>45065</v>
       </c>
@@ -5645,7 +5683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>45065</v>
       </c>
@@ -5662,7 +5700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>45065</v>
       </c>
@@ -5679,7 +5717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>45065</v>
       </c>
@@ -5696,7 +5734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>45065</v>
       </c>
@@ -5713,7 +5751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>45065</v>
       </c>
@@ -5730,7 +5768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>45065</v>
       </c>
@@ -5747,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>45065</v>
       </c>
@@ -5764,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>45065</v>
       </c>
@@ -5781,7 +5819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>45065</v>
       </c>
@@ -5798,7 +5836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>45065</v>
       </c>
@@ -5815,7 +5853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>45065</v>
       </c>
@@ -5832,7 +5870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>45065</v>
       </c>
@@ -5849,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>45065</v>
       </c>
@@ -5866,7 +5904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>45065</v>
       </c>
@@ -5883,7 +5921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>45065</v>
       </c>
@@ -5900,7 +5938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>45065</v>
       </c>
@@ -5917,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>45065</v>
       </c>
@@ -5934,7 +5972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45065</v>
       </c>
@@ -5951,7 +5989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45065</v>
       </c>
@@ -5968,7 +6006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45065</v>
       </c>
@@ -5985,7 +6023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>45065</v>
       </c>
@@ -6002,7 +6040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>45065</v>
       </c>
@@ -6019,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>45065</v>
       </c>
@@ -6036,7 +6074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>45065</v>
       </c>
@@ -6053,7 +6091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>45065</v>
       </c>
@@ -6070,7 +6108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>45065</v>
       </c>
@@ -6087,7 +6125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>45065</v>
       </c>
@@ -6104,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>45065</v>
       </c>
@@ -6121,7 +6159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>45065</v>
       </c>
@@ -6138,7 +6176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>45065</v>
       </c>
@@ -6155,7 +6193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>45065</v>
       </c>
@@ -6172,7 +6210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>45065</v>
       </c>
@@ -6189,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>45065</v>
       </c>
@@ -6206,7 +6244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>45065</v>
       </c>
@@ -6223,7 +6261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>45065</v>
       </c>
@@ -6240,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>45065</v>
       </c>
@@ -6257,7 +6295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>45065</v>
       </c>
@@ -6274,7 +6312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>45065</v>
       </c>
@@ -6291,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>45065</v>
       </c>
@@ -6308,7 +6346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>45065</v>
       </c>
@@ -6325,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>45065</v>
       </c>
@@ -6342,7 +6380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>45065</v>
       </c>
@@ -6359,7 +6397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>45065</v>
       </c>
@@ -6376,7 +6414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>45065</v>
       </c>
@@ -6393,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>45065</v>
       </c>
@@ -6410,7 +6448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>45065</v>
       </c>
@@ -6427,7 +6465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>45065</v>
       </c>
@@ -6444,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>45065</v>
       </c>
@@ -6461,7 +6499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>45065</v>
       </c>
@@ -6478,7 +6516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>45065</v>
       </c>
@@ -6495,7 +6533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>45065</v>
       </c>
@@ -6512,7 +6550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>45065</v>
       </c>
@@ -6529,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>45065</v>
       </c>
@@ -6546,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>45065</v>
       </c>
@@ -6563,7 +6601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>45065</v>
       </c>
@@ -6580,7 +6618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>45065</v>
       </c>
@@ -6597,7 +6635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>45065</v>
       </c>
@@ -6614,7 +6652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>45065</v>
       </c>
@@ -6631,7 +6669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>45065</v>
       </c>
@@ -6648,7 +6686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>45065</v>
       </c>
@@ -6665,7 +6703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>45065</v>
       </c>
@@ -6682,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>45065</v>
       </c>
@@ -6699,7 +6737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>45065</v>
       </c>
@@ -6716,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>45065</v>
       </c>
@@ -6733,7 +6771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>45065</v>
       </c>
@@ -6750,7 +6788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>45065</v>
       </c>
@@ -6767,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>45065</v>
       </c>
@@ -6784,7 +6822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>45065</v>
       </c>
@@ -6801,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>45065</v>
       </c>
@@ -6818,7 +6856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>45065</v>
       </c>
@@ -6835,7 +6873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>45065</v>
       </c>
@@ -6852,7 +6890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>45065</v>
       </c>
@@ -6869,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>45065</v>
       </c>
@@ -6886,7 +6924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>45065</v>
       </c>
@@ -6903,7 +6941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>45065</v>
       </c>
@@ -6920,7 +6958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>45065</v>
       </c>
@@ -6937,7 +6975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>45065</v>
       </c>
@@ -6954,7 +6992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>45065</v>
       </c>
@@ -6971,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>45065</v>
       </c>
@@ -6988,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>45065</v>
       </c>
@@ -7005,7 +7043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>45065</v>
       </c>
@@ -7022,7 +7060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>45065</v>
       </c>
@@ -7039,7 +7077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>45065</v>
       </c>
@@ -7056,7 +7094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>45065</v>
       </c>
@@ -7073,7 +7111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>45065</v>
       </c>
@@ -7090,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>45065</v>
       </c>
@@ -7107,7 +7145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>45065</v>
       </c>
@@ -7124,7 +7162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>45065</v>
       </c>
@@ -7141,7 +7179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>45065</v>
       </c>
@@ -7158,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>45065</v>
       </c>
@@ -7175,7 +7213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>45065</v>
       </c>
@@ -7192,7 +7230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>45065</v>
       </c>
@@ -7209,7 +7247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>45065</v>
       </c>
@@ -7226,7 +7264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>45065</v>
       </c>
@@ -7243,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>45065</v>
       </c>
@@ -7260,7 +7298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>45065</v>
       </c>
@@ -7277,7 +7315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>45065</v>
       </c>
@@ -7294,7 +7332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>45065</v>
       </c>
@@ -7311,7 +7349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>45065</v>
       </c>
@@ -7328,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>45065</v>
       </c>
@@ -7345,7 +7383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>45065</v>
       </c>
@@ -7362,7 +7400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>45065</v>
       </c>
@@ -7379,7 +7417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>45065</v>
       </c>
@@ -7396,7 +7434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>45065</v>
       </c>
@@ -7413,7 +7451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>45065</v>
       </c>
@@ -7430,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>45065</v>
       </c>
@@ -7447,7 +7485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>45065</v>
       </c>
@@ -7464,7 +7502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>45065</v>
       </c>
@@ -7481,7 +7519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>45065</v>
       </c>
@@ -7498,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>45065</v>
       </c>
@@ -7515,7 +7553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>45065</v>
       </c>
@@ -7532,7 +7570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>45065</v>
       </c>
@@ -7549,7 +7587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>45065</v>
       </c>
@@ -7566,7 +7604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>45065</v>
       </c>
@@ -7583,7 +7621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>45065</v>
       </c>
@@ -7600,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>45065</v>
       </c>
@@ -7617,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>45065</v>
       </c>
@@ -7634,7 +7672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>45065</v>
       </c>
@@ -7651,7 +7689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>45065</v>
       </c>
@@ -7665,6 +7703,2341 @@
         <v>45</v>
       </c>
       <c r="E409">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B410">
+        <v>3</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>22</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B411">
+        <v>3</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>13</v>
+      </c>
+      <c r="E411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B412">
+        <v>3</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B413">
+        <v>3</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
+        <v>6</v>
+      </c>
+      <c r="E413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B414">
+        <v>3</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B415">
+        <v>3</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B416">
+        <v>3</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416" t="s">
+        <v>16</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B417">
+        <v>3</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>21</v>
+      </c>
+      <c r="E417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418" t="s">
+        <v>9</v>
+      </c>
+      <c r="E418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B419">
+        <v>3</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B420">
+        <v>3</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420" t="s">
+        <v>12</v>
+      </c>
+      <c r="E420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B421">
+        <v>3</v>
+      </c>
+      <c r="C421">
+        <v>3</v>
+      </c>
+      <c r="D421" t="s">
+        <v>18</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B422">
+        <v>3</v>
+      </c>
+      <c r="C422">
+        <v>3</v>
+      </c>
+      <c r="D422" t="s">
+        <v>14</v>
+      </c>
+      <c r="E422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B423">
+        <v>3</v>
+      </c>
+      <c r="C423">
+        <v>3</v>
+      </c>
+      <c r="D423" t="s">
+        <v>17</v>
+      </c>
+      <c r="E423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B424">
+        <v>3</v>
+      </c>
+      <c r="C424">
+        <v>3</v>
+      </c>
+      <c r="D424" t="s">
+        <v>80</v>
+      </c>
+      <c r="E424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B425">
+        <v>7</v>
+      </c>
+      <c r="C425">
+        <v>4</v>
+      </c>
+      <c r="D425" t="s">
+        <v>56</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B426">
+        <v>7</v>
+      </c>
+      <c r="C426">
+        <v>4</v>
+      </c>
+      <c r="D426" t="s">
+        <v>61</v>
+      </c>
+      <c r="E426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B427">
+        <v>7</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+      <c r="D427" t="s">
+        <v>55</v>
+      </c>
+      <c r="E427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B428">
+        <v>7</v>
+      </c>
+      <c r="C428">
+        <v>4</v>
+      </c>
+      <c r="D428" t="s">
+        <v>99</v>
+      </c>
+      <c r="E428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B429">
+        <v>7</v>
+      </c>
+      <c r="C429">
+        <v>4</v>
+      </c>
+      <c r="D429" t="s">
+        <v>58</v>
+      </c>
+      <c r="E429">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B430">
+        <v>7</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+      <c r="D430" t="s">
+        <v>59</v>
+      </c>
+      <c r="E430">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B431">
+        <v>7</v>
+      </c>
+      <c r="C431">
+        <v>4</v>
+      </c>
+      <c r="D431" t="s">
+        <v>60</v>
+      </c>
+      <c r="E431">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B432">
+        <v>7</v>
+      </c>
+      <c r="C432">
+        <v>5</v>
+      </c>
+      <c r="D432" t="s">
+        <v>62</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B433">
+        <v>7</v>
+      </c>
+      <c r="C433">
+        <v>5</v>
+      </c>
+      <c r="D433" t="s">
+        <v>63</v>
+      </c>
+      <c r="E433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B434">
+        <v>7</v>
+      </c>
+      <c r="C434">
+        <v>5</v>
+      </c>
+      <c r="D434" t="s">
+        <v>67</v>
+      </c>
+      <c r="E434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B435">
+        <v>7</v>
+      </c>
+      <c r="C435">
+        <v>5</v>
+      </c>
+      <c r="D435" t="s">
+        <v>64</v>
+      </c>
+      <c r="E435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B436">
+        <v>7</v>
+      </c>
+      <c r="C436">
+        <v>5</v>
+      </c>
+      <c r="D436" t="s">
+        <v>65</v>
+      </c>
+      <c r="E436">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B437">
+        <v>7</v>
+      </c>
+      <c r="C437">
+        <v>5</v>
+      </c>
+      <c r="D437" t="s">
+        <v>66</v>
+      </c>
+      <c r="E437">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B438">
+        <v>7</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s">
+        <v>68</v>
+      </c>
+      <c r="E438">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B439">
+        <v>4</v>
+      </c>
+      <c r="C439">
+        <v>6</v>
+      </c>
+      <c r="D439" t="s">
+        <v>26</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B440">
+        <v>4</v>
+      </c>
+      <c r="C440">
+        <v>6</v>
+      </c>
+      <c r="D440" t="s">
+        <v>27</v>
+      </c>
+      <c r="E440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B441">
+        <v>4</v>
+      </c>
+      <c r="C441">
+        <v>6</v>
+      </c>
+      <c r="D441" t="s">
+        <v>25</v>
+      </c>
+      <c r="E441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B442">
+        <v>4</v>
+      </c>
+      <c r="C442">
+        <v>6</v>
+      </c>
+      <c r="D442" t="s">
+        <v>33</v>
+      </c>
+      <c r="E442">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B443">
+        <v>4</v>
+      </c>
+      <c r="C443">
+        <v>6</v>
+      </c>
+      <c r="D443">
+        <v>65</v>
+      </c>
+      <c r="E443">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B444">
+        <v>4</v>
+      </c>
+      <c r="C444">
+        <v>6</v>
+      </c>
+      <c r="D444">
+        <v>79</v>
+      </c>
+      <c r="E444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B445">
+        <v>4</v>
+      </c>
+      <c r="C445">
+        <v>7</v>
+      </c>
+      <c r="D445">
+        <v>93</v>
+      </c>
+      <c r="E445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B446">
+        <v>4</v>
+      </c>
+      <c r="C446">
+        <v>7</v>
+      </c>
+      <c r="D446">
+        <v>106</v>
+      </c>
+      <c r="E446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B447">
+        <v>4</v>
+      </c>
+      <c r="C447">
+        <v>7</v>
+      </c>
+      <c r="D447">
+        <v>72</v>
+      </c>
+      <c r="E447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B448">
+        <v>4</v>
+      </c>
+      <c r="C448">
+        <v>7</v>
+      </c>
+      <c r="D448" t="s">
+        <v>24</v>
+      </c>
+      <c r="E448">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B449">
+        <v>4</v>
+      </c>
+      <c r="C449">
+        <v>8</v>
+      </c>
+      <c r="D449">
+        <v>22</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B450">
+        <v>4</v>
+      </c>
+      <c r="C450">
+        <v>8</v>
+      </c>
+      <c r="D450">
+        <v>29</v>
+      </c>
+      <c r="E450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B451">
+        <v>4</v>
+      </c>
+      <c r="C451">
+        <v>8</v>
+      </c>
+      <c r="D451" t="s">
+        <v>31</v>
+      </c>
+      <c r="E451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B452">
+        <v>4</v>
+      </c>
+      <c r="C452">
+        <v>8</v>
+      </c>
+      <c r="D452">
+        <v>34</v>
+      </c>
+      <c r="E452">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B453">
+        <v>4</v>
+      </c>
+      <c r="C453">
+        <v>8</v>
+      </c>
+      <c r="D453">
+        <v>45</v>
+      </c>
+      <c r="E453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B454">
+        <v>4</v>
+      </c>
+      <c r="C454">
+        <v>8</v>
+      </c>
+      <c r="D454">
+        <v>10</v>
+      </c>
+      <c r="E454">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B455">
+        <v>4</v>
+      </c>
+      <c r="C455">
+        <v>9</v>
+      </c>
+      <c r="D455" t="s">
+        <v>30</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B456">
+        <v>4</v>
+      </c>
+      <c r="C456">
+        <v>9</v>
+      </c>
+      <c r="D456" t="s">
+        <v>28</v>
+      </c>
+      <c r="E456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B457">
+        <v>4</v>
+      </c>
+      <c r="C457">
+        <v>9</v>
+      </c>
+      <c r="D457" t="s">
+        <v>29</v>
+      </c>
+      <c r="E457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B458">
+        <v>4</v>
+      </c>
+      <c r="C458">
+        <v>9</v>
+      </c>
+      <c r="D458" t="s">
+        <v>32</v>
+      </c>
+      <c r="E458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B459">
+        <v>8</v>
+      </c>
+      <c r="C459">
+        <v>10</v>
+      </c>
+      <c r="D459">
+        <v>75</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B460">
+        <v>8</v>
+      </c>
+      <c r="C460">
+        <v>10</v>
+      </c>
+      <c r="D460">
+        <v>78</v>
+      </c>
+      <c r="E460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B461">
+        <v>8</v>
+      </c>
+      <c r="C461">
+        <v>10</v>
+      </c>
+      <c r="D461">
+        <v>105</v>
+      </c>
+      <c r="E461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B462">
+        <v>8</v>
+      </c>
+      <c r="C462">
+        <v>11</v>
+      </c>
+      <c r="D462" t="s">
+        <v>77</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B463">
+        <v>8</v>
+      </c>
+      <c r="C463">
+        <v>11</v>
+      </c>
+      <c r="D463">
+        <v>62</v>
+      </c>
+      <c r="E463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B464">
+        <v>8</v>
+      </c>
+      <c r="C464">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s">
+        <v>76</v>
+      </c>
+      <c r="E464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B465">
+        <v>8</v>
+      </c>
+      <c r="C465">
+        <v>11</v>
+      </c>
+      <c r="D465" t="s">
+        <v>70</v>
+      </c>
+      <c r="E465">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B466">
+        <v>8</v>
+      </c>
+      <c r="C466">
+        <v>11</v>
+      </c>
+      <c r="D466" t="s">
+        <v>75</v>
+      </c>
+      <c r="E466">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B467">
+        <v>8</v>
+      </c>
+      <c r="C467">
+        <v>11</v>
+      </c>
+      <c r="D467" t="s">
+        <v>74</v>
+      </c>
+      <c r="E467">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B468">
+        <v>8</v>
+      </c>
+      <c r="C468">
+        <v>12</v>
+      </c>
+      <c r="D468">
+        <v>54</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B469">
+        <v>8</v>
+      </c>
+      <c r="C469">
+        <v>12</v>
+      </c>
+      <c r="D469">
+        <v>5</v>
+      </c>
+      <c r="E469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B470">
+        <v>8</v>
+      </c>
+      <c r="C470">
+        <v>12</v>
+      </c>
+      <c r="D470" t="s">
+        <v>73</v>
+      </c>
+      <c r="E470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B471">
+        <v>8</v>
+      </c>
+      <c r="C471">
+        <v>12</v>
+      </c>
+      <c r="D471">
+        <v>25</v>
+      </c>
+      <c r="E471">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B472">
+        <v>8</v>
+      </c>
+      <c r="C472">
+        <v>12</v>
+      </c>
+      <c r="D472">
+        <v>43</v>
+      </c>
+      <c r="E472">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B473">
+        <v>8</v>
+      </c>
+      <c r="C473">
+        <v>12</v>
+      </c>
+      <c r="D473">
+        <v>12</v>
+      </c>
+      <c r="E473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B474">
+        <v>8</v>
+      </c>
+      <c r="C474">
+        <v>13</v>
+      </c>
+      <c r="D474">
+        <v>95</v>
+      </c>
+      <c r="E474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B475">
+        <v>8</v>
+      </c>
+      <c r="C475">
+        <v>13</v>
+      </c>
+      <c r="D475" t="s">
+        <v>72</v>
+      </c>
+      <c r="E475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B476">
+        <v>8</v>
+      </c>
+      <c r="C476">
+        <v>13</v>
+      </c>
+      <c r="D476" t="s">
+        <v>71</v>
+      </c>
+      <c r="E476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B477">
+        <v>8</v>
+      </c>
+      <c r="C477">
+        <v>13</v>
+      </c>
+      <c r="D477" t="s">
+        <v>69</v>
+      </c>
+      <c r="E477">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B478">
+        <v>8</v>
+      </c>
+      <c r="C478">
+        <v>13</v>
+      </c>
+      <c r="D478" t="s">
+        <v>78</v>
+      </c>
+      <c r="E478">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>14</v>
+      </c>
+      <c r="D479">
+        <v>52</v>
+      </c>
+      <c r="E479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>14</v>
+      </c>
+      <c r="D480">
+        <v>32</v>
+      </c>
+      <c r="E480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+      <c r="C481">
+        <v>14</v>
+      </c>
+      <c r="D481">
+        <v>16</v>
+      </c>
+      <c r="E481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>14</v>
+      </c>
+      <c r="D482">
+        <v>2</v>
+      </c>
+      <c r="E482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>14</v>
+      </c>
+      <c r="D483">
+        <v>44</v>
+      </c>
+      <c r="E483">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>14</v>
+      </c>
+      <c r="D484">
+        <v>8</v>
+      </c>
+      <c r="E484">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>15</v>
+      </c>
+      <c r="D485">
+        <v>63</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>15</v>
+      </c>
+      <c r="D486">
+        <v>58</v>
+      </c>
+      <c r="E486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487">
+        <v>15</v>
+      </c>
+      <c r="D487">
+        <v>94</v>
+      </c>
+      <c r="E487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>15</v>
+      </c>
+      <c r="D488">
+        <v>110</v>
+      </c>
+      <c r="E488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489">
+        <v>16</v>
+      </c>
+      <c r="D489">
+        <v>82</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>16</v>
+      </c>
+      <c r="D490">
+        <v>102</v>
+      </c>
+      <c r="E490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491">
+        <v>16</v>
+      </c>
+      <c r="D491">
+        <v>73</v>
+      </c>
+      <c r="E491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>16</v>
+      </c>
+      <c r="D492">
+        <v>99</v>
+      </c>
+      <c r="E492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B493">
+        <v>2</v>
+      </c>
+      <c r="C493">
+        <v>17</v>
+      </c>
+      <c r="D493">
+        <v>18</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B494">
+        <v>2</v>
+      </c>
+      <c r="C494">
+        <v>17</v>
+      </c>
+      <c r="D494">
+        <v>30</v>
+      </c>
+      <c r="E494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+      <c r="C495">
+        <v>17</v>
+      </c>
+      <c r="D495">
+        <v>7</v>
+      </c>
+      <c r="E495">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>17</v>
+      </c>
+      <c r="D496">
+        <v>17</v>
+      </c>
+      <c r="E496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B497">
+        <v>2</v>
+      </c>
+      <c r="C497">
+        <v>17</v>
+      </c>
+      <c r="D497">
+        <v>40</v>
+      </c>
+      <c r="E497">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+      <c r="C498">
+        <v>17</v>
+      </c>
+      <c r="D498">
+        <v>42</v>
+      </c>
+      <c r="E498">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+      <c r="C499">
+        <v>18</v>
+      </c>
+      <c r="D499">
+        <v>104</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+      <c r="C500">
+        <v>18</v>
+      </c>
+      <c r="D500">
+        <v>66</v>
+      </c>
+      <c r="E500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B501">
+        <v>2</v>
+      </c>
+      <c r="C501">
+        <v>18</v>
+      </c>
+      <c r="D501">
+        <v>97</v>
+      </c>
+      <c r="E501">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B502">
+        <v>2</v>
+      </c>
+      <c r="C502">
+        <v>19</v>
+      </c>
+      <c r="D502">
+        <v>86</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503">
+        <v>19</v>
+      </c>
+      <c r="D503">
+        <v>77</v>
+      </c>
+      <c r="E503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504">
+        <v>19</v>
+      </c>
+      <c r="D504">
+        <v>71</v>
+      </c>
+      <c r="E504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505">
+        <v>19</v>
+      </c>
+      <c r="D505">
+        <v>88</v>
+      </c>
+      <c r="E505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B506">
+        <v>5</v>
+      </c>
+      <c r="C506">
+        <v>20</v>
+      </c>
+      <c r="D506" t="s">
+        <v>59</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B507">
+        <v>5</v>
+      </c>
+      <c r="C507">
+        <v>20</v>
+      </c>
+      <c r="D507" t="s">
+        <v>100</v>
+      </c>
+      <c r="E507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B508">
+        <v>5</v>
+      </c>
+      <c r="C508">
+        <v>20</v>
+      </c>
+      <c r="D508" t="s">
+        <v>101</v>
+      </c>
+      <c r="E508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B509">
+        <v>5</v>
+      </c>
+      <c r="C509">
+        <v>20</v>
+      </c>
+      <c r="D509" t="s">
+        <v>41</v>
+      </c>
+      <c r="E509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B510">
+        <v>5</v>
+      </c>
+      <c r="C510">
+        <v>20</v>
+      </c>
+      <c r="D510" t="s">
+        <v>102</v>
+      </c>
+      <c r="E510">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B511">
+        <v>5</v>
+      </c>
+      <c r="C511">
+        <v>21</v>
+      </c>
+      <c r="D511" t="s">
+        <v>34</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B512">
+        <v>5</v>
+      </c>
+      <c r="C512">
+        <v>21</v>
+      </c>
+      <c r="D512" t="s">
+        <v>37</v>
+      </c>
+      <c r="E512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B513">
+        <v>5</v>
+      </c>
+      <c r="C513">
+        <v>21</v>
+      </c>
+      <c r="D513" t="s">
+        <v>39</v>
+      </c>
+      <c r="E513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B514">
+        <v>5</v>
+      </c>
+      <c r="C514">
+        <v>21</v>
+      </c>
+      <c r="D514" t="s">
+        <v>103</v>
+      </c>
+      <c r="E514">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B515">
+        <v>5</v>
+      </c>
+      <c r="C515">
+        <v>21</v>
+      </c>
+      <c r="D515" t="s">
+        <v>35</v>
+      </c>
+      <c r="E515">
+        <v>5</v>
+      </c>
+      <c r="F515" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B516">
+        <v>5</v>
+      </c>
+      <c r="C516">
+        <v>22</v>
+      </c>
+      <c r="D516">
+        <v>4</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B517">
+        <v>5</v>
+      </c>
+      <c r="C517">
+        <v>22</v>
+      </c>
+      <c r="D517">
+        <v>35</v>
+      </c>
+      <c r="E517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B518">
+        <v>5</v>
+      </c>
+      <c r="C518">
+        <v>22</v>
+      </c>
+      <c r="D518">
+        <v>15</v>
+      </c>
+      <c r="E518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B519">
+        <v>5</v>
+      </c>
+      <c r="C519">
+        <v>22</v>
+      </c>
+      <c r="D519">
+        <v>23</v>
+      </c>
+      <c r="E519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B520">
+        <v>5</v>
+      </c>
+      <c r="C520">
+        <v>22</v>
+      </c>
+      <c r="D520">
+        <v>55</v>
+      </c>
+      <c r="E520">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B521">
+        <v>5</v>
+      </c>
+      <c r="C521">
+        <v>22</v>
+      </c>
+      <c r="D521">
+        <v>61</v>
+      </c>
+      <c r="E521">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B522">
+        <v>5</v>
+      </c>
+      <c r="C522">
+        <v>23</v>
+      </c>
+      <c r="D522">
+        <v>98</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B523">
+        <v>5</v>
+      </c>
+      <c r="C523">
+        <v>23</v>
+      </c>
+      <c r="D523">
+        <v>87</v>
+      </c>
+      <c r="E523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B524">
+        <v>5</v>
+      </c>
+      <c r="C524">
+        <v>23</v>
+      </c>
+      <c r="D524">
+        <v>107</v>
+      </c>
+      <c r="E524">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B525">
+        <v>5</v>
+      </c>
+      <c r="C525">
+        <v>23</v>
+      </c>
+      <c r="D525">
+        <v>74</v>
+      </c>
+      <c r="E525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B526">
+        <v>6</v>
+      </c>
+      <c r="C526">
+        <v>24</v>
+      </c>
+      <c r="D526">
+        <v>92</v>
+      </c>
+      <c r="E526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B527">
+        <v>6</v>
+      </c>
+      <c r="C527">
+        <v>24</v>
+      </c>
+      <c r="D527">
+        <v>80</v>
+      </c>
+      <c r="E527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B528">
+        <v>6</v>
+      </c>
+      <c r="C528">
+        <v>24</v>
+      </c>
+      <c r="D528">
+        <v>103</v>
+      </c>
+      <c r="E528">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B529">
+        <v>6</v>
+      </c>
+      <c r="C529">
+        <v>24</v>
+      </c>
+      <c r="D529">
+        <v>59</v>
+      </c>
+      <c r="E529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B530">
+        <v>6</v>
+      </c>
+      <c r="C530">
+        <v>24</v>
+      </c>
+      <c r="D530">
+        <v>67</v>
+      </c>
+      <c r="E530">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B531">
+        <v>6</v>
+      </c>
+      <c r="C531">
+        <v>24</v>
+      </c>
+      <c r="D531">
+        <v>70</v>
+      </c>
+      <c r="E531">
+        <v>6</v>
+      </c>
+      <c r="F531" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B532">
+        <v>6</v>
+      </c>
+      <c r="C532">
+        <v>25</v>
+      </c>
+      <c r="D532">
+        <v>39</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B533">
+        <v>6</v>
+      </c>
+      <c r="C533">
+        <v>25</v>
+      </c>
+      <c r="D533">
+        <v>19</v>
+      </c>
+      <c r="E533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B534">
+        <v>6</v>
+      </c>
+      <c r="C534">
+        <v>25</v>
+      </c>
+      <c r="D534">
+        <v>47</v>
+      </c>
+      <c r="E534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B535">
+        <v>6</v>
+      </c>
+      <c r="C535">
+        <v>25</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B536">
+        <v>6</v>
+      </c>
+      <c r="C536">
+        <v>25</v>
+      </c>
+      <c r="D536">
+        <v>24</v>
+      </c>
+      <c r="E536">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B537">
+        <v>6</v>
+      </c>
+      <c r="C537">
+        <v>26</v>
+      </c>
+      <c r="D537" t="s">
+        <v>105</v>
+      </c>
+      <c r="E537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B538">
+        <v>6</v>
+      </c>
+      <c r="C538">
+        <v>26</v>
+      </c>
+      <c r="D538" t="s">
+        <v>106</v>
+      </c>
+      <c r="E538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B539">
+        <v>6</v>
+      </c>
+      <c r="C539">
+        <v>26</v>
+      </c>
+      <c r="D539" t="s">
+        <v>107</v>
+      </c>
+      <c r="E539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B540">
+        <v>6</v>
+      </c>
+      <c r="C540">
+        <v>26</v>
+      </c>
+      <c r="D540" t="s">
+        <v>50</v>
+      </c>
+      <c r="E540">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B541">
+        <v>6</v>
+      </c>
+      <c r="C541">
+        <v>26</v>
+      </c>
+      <c r="D541" t="s">
+        <v>108</v>
+      </c>
+      <c r="E541">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B542">
+        <v>6</v>
+      </c>
+      <c r="C542">
+        <v>27</v>
+      </c>
+      <c r="D542" t="s">
+        <v>46</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B543">
+        <v>6</v>
+      </c>
+      <c r="C543">
+        <v>27</v>
+      </c>
+      <c r="D543" t="s">
+        <v>109</v>
+      </c>
+      <c r="E543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B544">
+        <v>6</v>
+      </c>
+      <c r="C544">
+        <v>27</v>
+      </c>
+      <c r="D544" t="s">
+        <v>48</v>
+      </c>
+      <c r="E544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B545">
+        <v>6</v>
+      </c>
+      <c r="C545">
+        <v>27</v>
+      </c>
+      <c r="D545" t="s">
+        <v>45</v>
+      </c>
+      <c r="E545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B546">
+        <v>6</v>
+      </c>
+      <c r="C546">
+        <v>27</v>
+      </c>
+      <c r="D546" t="s">
+        <v>49</v>
+      </c>
+      <c r="E546">
         <v>5</v>
       </c>
     </row>

--- a/data/PAM_metadata.xlsx
+++ b/data/PAM_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayle/Desktop/Projects/GT23_Heat_Microbiome/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/GT23_Heat_Microbiome/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987E3C4D-14A1-7C48-8B88-0DA2A1A6367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFC0D5-A074-5C4C-B602-7036DD946E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="460" windowWidth="21360" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="500" windowWidth="21360" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="114">
   <si>
     <t>Date:</t>
   </si>
@@ -364,6 +364,18 @@
   <si>
     <t>128X-8</t>
   </si>
+  <si>
+    <t>1921-6</t>
+  </si>
+  <si>
+    <t>1273-2</t>
+  </si>
+  <si>
+    <t>1283-7</t>
+  </si>
+  <si>
+    <t>1281-6</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -707,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F546"/>
+  <dimension ref="A1:F757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:A546"/>
+    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
+      <selection activeCell="D685" sqref="D685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10041,6 +10053,2717 @@
         <v>5</v>
       </c>
     </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B547">
+        <v>3</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547" t="s">
+        <v>6</v>
+      </c>
+      <c r="E547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B548">
+        <v>3</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548" t="s">
+        <v>80</v>
+      </c>
+      <c r="E548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B549">
+        <v>3</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549" t="s">
+        <v>12</v>
+      </c>
+      <c r="E549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B550">
+        <v>3</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550" t="s">
+        <v>22</v>
+      </c>
+      <c r="E550">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B551">
+        <v>3</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551" t="s">
+        <v>8</v>
+      </c>
+      <c r="E551">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B552">
+        <v>3</v>
+      </c>
+      <c r="C552">
+        <v>2</v>
+      </c>
+      <c r="D552" t="s">
+        <v>13</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B553">
+        <v>3</v>
+      </c>
+      <c r="C553">
+        <v>2</v>
+      </c>
+      <c r="D553" t="s">
+        <v>9</v>
+      </c>
+      <c r="E553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B554">
+        <v>3</v>
+      </c>
+      <c r="C554">
+        <v>2</v>
+      </c>
+      <c r="D554" t="s">
+        <v>21</v>
+      </c>
+      <c r="E554">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B555">
+        <v>3</v>
+      </c>
+      <c r="C555">
+        <v>2</v>
+      </c>
+      <c r="D555" t="s">
+        <v>16</v>
+      </c>
+      <c r="E555">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B556">
+        <v>3</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+      <c r="D556" t="s">
+        <v>7</v>
+      </c>
+      <c r="E556">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B557">
+        <v>3</v>
+      </c>
+      <c r="C557">
+        <v>2</v>
+      </c>
+      <c r="D557" t="s">
+        <v>11</v>
+      </c>
+      <c r="E557">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B558">
+        <v>3</v>
+      </c>
+      <c r="C558">
+        <v>3</v>
+      </c>
+      <c r="D558" t="s">
+        <v>110</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B559">
+        <v>3</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+      <c r="D559" t="s">
+        <v>10</v>
+      </c>
+      <c r="E559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B560">
+        <v>3</v>
+      </c>
+      <c r="C560">
+        <v>3</v>
+      </c>
+      <c r="D560" t="s">
+        <v>15</v>
+      </c>
+      <c r="E560">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B561">
+        <v>3</v>
+      </c>
+      <c r="C561">
+        <v>3</v>
+      </c>
+      <c r="D561" t="s">
+        <v>18</v>
+      </c>
+      <c r="E561">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B562">
+        <v>3</v>
+      </c>
+      <c r="C562">
+        <v>3</v>
+      </c>
+      <c r="D562" t="s">
+        <v>17</v>
+      </c>
+      <c r="E562">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B563">
+        <v>7</v>
+      </c>
+      <c r="C563">
+        <v>4</v>
+      </c>
+      <c r="D563" t="s">
+        <v>63</v>
+      </c>
+      <c r="E563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B564">
+        <v>7</v>
+      </c>
+      <c r="C564">
+        <v>4</v>
+      </c>
+      <c r="D564" t="s">
+        <v>58</v>
+      </c>
+      <c r="E564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B565">
+        <v>7</v>
+      </c>
+      <c r="C565">
+        <v>4</v>
+      </c>
+      <c r="D565" t="s">
+        <v>60</v>
+      </c>
+      <c r="E565">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B566">
+        <v>7</v>
+      </c>
+      <c r="C566">
+        <v>4</v>
+      </c>
+      <c r="D566" t="s">
+        <v>67</v>
+      </c>
+      <c r="E566">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B567">
+        <v>7</v>
+      </c>
+      <c r="C567">
+        <v>4</v>
+      </c>
+      <c r="D567" t="s">
+        <v>61</v>
+      </c>
+      <c r="E567">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B568">
+        <v>7</v>
+      </c>
+      <c r="C568">
+        <v>4</v>
+      </c>
+      <c r="D568" t="s">
+        <v>62</v>
+      </c>
+      <c r="E568">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B569">
+        <v>7</v>
+      </c>
+      <c r="C569">
+        <v>4</v>
+      </c>
+      <c r="D569" t="s">
+        <v>55</v>
+      </c>
+      <c r="E569">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B570">
+        <v>7</v>
+      </c>
+      <c r="C570">
+        <v>5</v>
+      </c>
+      <c r="D570" t="s">
+        <v>81</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B571">
+        <v>7</v>
+      </c>
+      <c r="C571">
+        <v>5</v>
+      </c>
+      <c r="D571" t="s">
+        <v>64</v>
+      </c>
+      <c r="E571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B572">
+        <v>7</v>
+      </c>
+      <c r="C572">
+        <v>5</v>
+      </c>
+      <c r="D572" t="s">
+        <v>68</v>
+      </c>
+      <c r="E572">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B573">
+        <v>7</v>
+      </c>
+      <c r="C573">
+        <v>5</v>
+      </c>
+      <c r="D573" t="s">
+        <v>59</v>
+      </c>
+      <c r="E573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B574">
+        <v>7</v>
+      </c>
+      <c r="C574">
+        <v>5</v>
+      </c>
+      <c r="D574" t="s">
+        <v>66</v>
+      </c>
+      <c r="E574">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B575">
+        <v>7</v>
+      </c>
+      <c r="C575">
+        <v>5</v>
+      </c>
+      <c r="D575" t="s">
+        <v>56</v>
+      </c>
+      <c r="E575">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B576">
+        <v>7</v>
+      </c>
+      <c r="C576">
+        <v>5</v>
+      </c>
+      <c r="D576" t="s">
+        <v>65</v>
+      </c>
+      <c r="E576">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B577">
+        <v>4</v>
+      </c>
+      <c r="C577">
+        <v>6</v>
+      </c>
+      <c r="D577">
+        <v>72</v>
+      </c>
+      <c r="E577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B578">
+        <v>4</v>
+      </c>
+      <c r="C578">
+        <v>6</v>
+      </c>
+      <c r="D578">
+        <v>106</v>
+      </c>
+      <c r="E578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B579">
+        <v>4</v>
+      </c>
+      <c r="C579">
+        <v>6</v>
+      </c>
+      <c r="D579" t="s">
+        <v>24</v>
+      </c>
+      <c r="E579">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B580">
+        <v>4</v>
+      </c>
+      <c r="C580">
+        <v>6</v>
+      </c>
+      <c r="D580">
+        <v>65</v>
+      </c>
+      <c r="E580">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B581">
+        <v>4</v>
+      </c>
+      <c r="C581">
+        <v>6</v>
+      </c>
+      <c r="D581">
+        <v>79</v>
+      </c>
+      <c r="E581">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B582">
+        <v>4</v>
+      </c>
+      <c r="C582">
+        <v>7</v>
+      </c>
+      <c r="D582" t="s">
+        <v>25</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B583">
+        <v>4</v>
+      </c>
+      <c r="C583">
+        <v>7</v>
+      </c>
+      <c r="D583">
+        <v>93</v>
+      </c>
+      <c r="E583">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B584">
+        <v>4</v>
+      </c>
+      <c r="C584">
+        <v>7</v>
+      </c>
+      <c r="D584" t="s">
+        <v>26</v>
+      </c>
+      <c r="E584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B585">
+        <v>4</v>
+      </c>
+      <c r="C585">
+        <v>7</v>
+      </c>
+      <c r="D585">
+        <v>34</v>
+      </c>
+      <c r="E585">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B586">
+        <v>4</v>
+      </c>
+      <c r="C586">
+        <v>7</v>
+      </c>
+      <c r="D586" t="s">
+        <v>27</v>
+      </c>
+      <c r="E586">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B587">
+        <v>4</v>
+      </c>
+      <c r="C587">
+        <v>8</v>
+      </c>
+      <c r="D587" t="s">
+        <v>29</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B588">
+        <v>4</v>
+      </c>
+      <c r="C588">
+        <v>8</v>
+      </c>
+      <c r="D588" t="s">
+        <v>33</v>
+      </c>
+      <c r="E588">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B589">
+        <v>4</v>
+      </c>
+      <c r="C589">
+        <v>8</v>
+      </c>
+      <c r="D589" t="s">
+        <v>32</v>
+      </c>
+      <c r="E589">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B590">
+        <v>4</v>
+      </c>
+      <c r="C590">
+        <v>8</v>
+      </c>
+      <c r="D590" t="s">
+        <v>30</v>
+      </c>
+      <c r="E590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B591">
+        <v>4</v>
+      </c>
+      <c r="C591">
+        <v>8</v>
+      </c>
+      <c r="D591" t="s">
+        <v>28</v>
+      </c>
+      <c r="E591">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B592">
+        <v>4</v>
+      </c>
+      <c r="C592">
+        <v>9</v>
+      </c>
+      <c r="D592">
+        <v>29</v>
+      </c>
+      <c r="E592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B593">
+        <v>4</v>
+      </c>
+      <c r="C593">
+        <v>9</v>
+      </c>
+      <c r="D593">
+        <v>22</v>
+      </c>
+      <c r="E593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B594">
+        <v>4</v>
+      </c>
+      <c r="C594">
+        <v>9</v>
+      </c>
+      <c r="D594">
+        <v>45</v>
+      </c>
+      <c r="E594">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B595">
+        <v>4</v>
+      </c>
+      <c r="C595">
+        <v>9</v>
+      </c>
+      <c r="D595">
+        <v>10</v>
+      </c>
+      <c r="E595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B596">
+        <v>4</v>
+      </c>
+      <c r="C596">
+        <v>9</v>
+      </c>
+      <c r="D596" t="s">
+        <v>31</v>
+      </c>
+      <c r="E596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B597">
+        <v>8</v>
+      </c>
+      <c r="C597">
+        <v>10</v>
+      </c>
+      <c r="D597">
+        <v>25</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B598">
+        <v>8</v>
+      </c>
+      <c r="C598">
+        <v>10</v>
+      </c>
+      <c r="D598">
+        <v>12</v>
+      </c>
+      <c r="E598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B599">
+        <v>8</v>
+      </c>
+      <c r="C599">
+        <v>10</v>
+      </c>
+      <c r="D599">
+        <v>43</v>
+      </c>
+      <c r="E599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B600">
+        <v>8</v>
+      </c>
+      <c r="C600">
+        <v>10</v>
+      </c>
+      <c r="D600">
+        <v>5</v>
+      </c>
+      <c r="E600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B601">
+        <v>8</v>
+      </c>
+      <c r="C601">
+        <v>10</v>
+      </c>
+      <c r="D601">
+        <v>54</v>
+      </c>
+      <c r="E601">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B602">
+        <v>8</v>
+      </c>
+      <c r="C602">
+        <v>10</v>
+      </c>
+      <c r="D602" t="s">
+        <v>78</v>
+      </c>
+      <c r="E602">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B603">
+        <v>8</v>
+      </c>
+      <c r="C603">
+        <v>11</v>
+      </c>
+      <c r="D603" t="s">
+        <v>72</v>
+      </c>
+      <c r="E603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B604">
+        <v>8</v>
+      </c>
+      <c r="C604">
+        <v>11</v>
+      </c>
+      <c r="D604" t="s">
+        <v>71</v>
+      </c>
+      <c r="E604">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B605">
+        <v>8</v>
+      </c>
+      <c r="C605">
+        <v>11</v>
+      </c>
+      <c r="D605" t="s">
+        <v>76</v>
+      </c>
+      <c r="E605">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B606">
+        <v>8</v>
+      </c>
+      <c r="C606">
+        <v>11</v>
+      </c>
+      <c r="D606" t="s">
+        <v>73</v>
+      </c>
+      <c r="E606">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B607">
+        <v>8</v>
+      </c>
+      <c r="C607">
+        <v>11</v>
+      </c>
+      <c r="D607" t="s">
+        <v>69</v>
+      </c>
+      <c r="E607">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B608">
+        <v>8</v>
+      </c>
+      <c r="C608">
+        <v>11</v>
+      </c>
+      <c r="D608" t="s">
+        <v>74</v>
+      </c>
+      <c r="E608">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B609">
+        <v>8</v>
+      </c>
+      <c r="C609">
+        <v>12</v>
+      </c>
+      <c r="D609" t="s">
+        <v>75</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B610">
+        <v>8</v>
+      </c>
+      <c r="C610">
+        <v>12</v>
+      </c>
+      <c r="D610" t="s">
+        <v>77</v>
+      </c>
+      <c r="E610">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B611">
+        <v>8</v>
+      </c>
+      <c r="C611">
+        <v>12</v>
+      </c>
+      <c r="D611">
+        <v>78</v>
+      </c>
+      <c r="E611">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B612">
+        <v>8</v>
+      </c>
+      <c r="C612">
+        <v>12</v>
+      </c>
+      <c r="D612" t="s">
+        <v>70</v>
+      </c>
+      <c r="E612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B613">
+        <v>8</v>
+      </c>
+      <c r="C613">
+        <v>12</v>
+      </c>
+      <c r="D613">
+        <v>95</v>
+      </c>
+      <c r="E613">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B614">
+        <v>8</v>
+      </c>
+      <c r="C614">
+        <v>13</v>
+      </c>
+      <c r="D614">
+        <v>105</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B615">
+        <v>8</v>
+      </c>
+      <c r="C615">
+        <v>13</v>
+      </c>
+      <c r="D615">
+        <v>62</v>
+      </c>
+      <c r="E615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B616">
+        <v>8</v>
+      </c>
+      <c r="C616">
+        <v>13</v>
+      </c>
+      <c r="D616">
+        <v>75</v>
+      </c>
+      <c r="E616">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B617">
+        <v>5</v>
+      </c>
+      <c r="C617">
+        <v>14</v>
+      </c>
+      <c r="D617">
+        <v>55</v>
+      </c>
+      <c r="E617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B618">
+        <v>5</v>
+      </c>
+      <c r="C618">
+        <v>14</v>
+      </c>
+      <c r="D618">
+        <v>23</v>
+      </c>
+      <c r="E618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B619">
+        <v>5</v>
+      </c>
+      <c r="C619">
+        <v>14</v>
+      </c>
+      <c r="D619">
+        <v>15</v>
+      </c>
+      <c r="E619">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B620">
+        <v>5</v>
+      </c>
+      <c r="C620">
+        <v>14</v>
+      </c>
+      <c r="D620">
+        <v>35</v>
+      </c>
+      <c r="E620">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B621">
+        <v>5</v>
+      </c>
+      <c r="C621">
+        <v>14</v>
+      </c>
+      <c r="D621">
+        <v>4</v>
+      </c>
+      <c r="E621">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B622">
+        <v>5</v>
+      </c>
+      <c r="C622">
+        <v>14</v>
+      </c>
+      <c r="D622">
+        <v>61</v>
+      </c>
+      <c r="E622">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B623">
+        <v>5</v>
+      </c>
+      <c r="C623">
+        <v>15</v>
+      </c>
+      <c r="D623">
+        <v>74</v>
+      </c>
+      <c r="E623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B624">
+        <v>5</v>
+      </c>
+      <c r="C624">
+        <v>15</v>
+      </c>
+      <c r="D624">
+        <v>107</v>
+      </c>
+      <c r="E624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B625">
+        <v>5</v>
+      </c>
+      <c r="C625">
+        <v>15</v>
+      </c>
+      <c r="D625">
+        <v>87</v>
+      </c>
+      <c r="E625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B626">
+        <v>5</v>
+      </c>
+      <c r="C626">
+        <v>15</v>
+      </c>
+      <c r="D626">
+        <v>98</v>
+      </c>
+      <c r="E626">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B627">
+        <v>5</v>
+      </c>
+      <c r="C627">
+        <v>16</v>
+      </c>
+      <c r="D627" t="s">
+        <v>95</v>
+      </c>
+      <c r="E627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B628">
+        <v>5</v>
+      </c>
+      <c r="C628">
+        <v>16</v>
+      </c>
+      <c r="D628" t="s">
+        <v>111</v>
+      </c>
+      <c r="E628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B629">
+        <v>5</v>
+      </c>
+      <c r="C629">
+        <v>16</v>
+      </c>
+      <c r="D629" t="s">
+        <v>112</v>
+      </c>
+      <c r="E629">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B630">
+        <v>5</v>
+      </c>
+      <c r="C630">
+        <v>16</v>
+      </c>
+      <c r="D630" t="s">
+        <v>41</v>
+      </c>
+      <c r="E630">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B631">
+        <v>5</v>
+      </c>
+      <c r="C631">
+        <v>16</v>
+      </c>
+      <c r="D631" t="s">
+        <v>113</v>
+      </c>
+      <c r="E631">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B632">
+        <v>5</v>
+      </c>
+      <c r="C632">
+        <v>17</v>
+      </c>
+      <c r="D632" t="s">
+        <v>92</v>
+      </c>
+      <c r="E632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B633">
+        <v>5</v>
+      </c>
+      <c r="C633">
+        <v>17</v>
+      </c>
+      <c r="D633" t="s">
+        <v>88</v>
+      </c>
+      <c r="E633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B634">
+        <v>5</v>
+      </c>
+      <c r="C634">
+        <v>17</v>
+      </c>
+      <c r="D634" t="s">
+        <v>39</v>
+      </c>
+      <c r="E634">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B635">
+        <v>5</v>
+      </c>
+      <c r="C635">
+        <v>17</v>
+      </c>
+      <c r="D635" t="s">
+        <v>37</v>
+      </c>
+      <c r="E635">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B636">
+        <v>5</v>
+      </c>
+      <c r="C636">
+        <v>17</v>
+      </c>
+      <c r="D636" t="s">
+        <v>34</v>
+      </c>
+      <c r="E636">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B637">
+        <v>6</v>
+      </c>
+      <c r="C637">
+        <v>18</v>
+      </c>
+      <c r="D637" t="s">
+        <v>46</v>
+      </c>
+      <c r="E637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B638">
+        <v>6</v>
+      </c>
+      <c r="C638">
+        <v>18</v>
+      </c>
+      <c r="D638" t="s">
+        <v>98</v>
+      </c>
+      <c r="E638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B639">
+        <v>6</v>
+      </c>
+      <c r="C639">
+        <v>18</v>
+      </c>
+      <c r="D639" t="s">
+        <v>48</v>
+      </c>
+      <c r="E639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B640">
+        <v>6</v>
+      </c>
+      <c r="C640">
+        <v>18</v>
+      </c>
+      <c r="D640" t="s">
+        <v>45</v>
+      </c>
+      <c r="E640">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B641">
+        <v>6</v>
+      </c>
+      <c r="C641">
+        <v>18</v>
+      </c>
+      <c r="D641" t="s">
+        <v>49</v>
+      </c>
+      <c r="E641">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B642">
+        <v>6</v>
+      </c>
+      <c r="C642">
+        <v>19</v>
+      </c>
+      <c r="D642" t="s">
+        <v>50</v>
+      </c>
+      <c r="E642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B643">
+        <v>6</v>
+      </c>
+      <c r="C643">
+        <v>19</v>
+      </c>
+      <c r="D643" t="s">
+        <v>87</v>
+      </c>
+      <c r="E643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B644">
+        <v>6</v>
+      </c>
+      <c r="C644">
+        <v>19</v>
+      </c>
+      <c r="D644" t="s">
+        <v>52</v>
+      </c>
+      <c r="E644">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B645">
+        <v>6</v>
+      </c>
+      <c r="C645">
+        <v>19</v>
+      </c>
+      <c r="D645" t="s">
+        <v>50</v>
+      </c>
+      <c r="E645">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B646">
+        <v>6</v>
+      </c>
+      <c r="C646">
+        <v>19</v>
+      </c>
+      <c r="D646" t="s">
+        <v>97</v>
+      </c>
+      <c r="E646">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B647">
+        <v>6</v>
+      </c>
+      <c r="C647">
+        <v>20</v>
+      </c>
+      <c r="D647">
+        <v>24</v>
+      </c>
+      <c r="E647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B648">
+        <v>6</v>
+      </c>
+      <c r="C648">
+        <v>20</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
+      </c>
+      <c r="E648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B649">
+        <v>6</v>
+      </c>
+      <c r="C649">
+        <v>20</v>
+      </c>
+      <c r="D649">
+        <v>47</v>
+      </c>
+      <c r="E649">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B650">
+        <v>6</v>
+      </c>
+      <c r="C650">
+        <v>20</v>
+      </c>
+      <c r="D650">
+        <v>19</v>
+      </c>
+      <c r="E650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B651">
+        <v>6</v>
+      </c>
+      <c r="C651">
+        <v>20</v>
+      </c>
+      <c r="D651">
+        <v>39</v>
+      </c>
+      <c r="E651">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B652">
+        <v>6</v>
+      </c>
+      <c r="C652">
+        <v>20</v>
+      </c>
+      <c r="D652">
+        <v>59</v>
+      </c>
+      <c r="E652">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B653">
+        <v>6</v>
+      </c>
+      <c r="C653">
+        <v>21</v>
+      </c>
+      <c r="D653">
+        <v>92</v>
+      </c>
+      <c r="E653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B654">
+        <v>6</v>
+      </c>
+      <c r="C654">
+        <v>21</v>
+      </c>
+      <c r="D654">
+        <v>70</v>
+      </c>
+      <c r="E654">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B655">
+        <v>6</v>
+      </c>
+      <c r="C655">
+        <v>21</v>
+      </c>
+      <c r="D655">
+        <v>80</v>
+      </c>
+      <c r="E655">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B656">
+        <v>6</v>
+      </c>
+      <c r="C656">
+        <v>21</v>
+      </c>
+      <c r="D656">
+        <v>103</v>
+      </c>
+      <c r="E656">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B657">
+        <v>6</v>
+      </c>
+      <c r="C657">
+        <v>21</v>
+      </c>
+      <c r="D657">
+        <v>67</v>
+      </c>
+      <c r="E657">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B658">
+        <v>1</v>
+      </c>
+      <c r="C658">
+        <v>22</v>
+      </c>
+      <c r="D658">
+        <v>2</v>
+      </c>
+      <c r="E658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B659">
+        <v>1</v>
+      </c>
+      <c r="C659">
+        <v>22</v>
+      </c>
+      <c r="D659">
+        <v>44</v>
+      </c>
+      <c r="E659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B660">
+        <v>1</v>
+      </c>
+      <c r="C660">
+        <v>22</v>
+      </c>
+      <c r="D660">
+        <v>32</v>
+      </c>
+      <c r="E660">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+      <c r="C661">
+        <v>22</v>
+      </c>
+      <c r="D661">
+        <v>8</v>
+      </c>
+      <c r="E661">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+      <c r="C662">
+        <v>22</v>
+      </c>
+      <c r="D662">
+        <v>16</v>
+      </c>
+      <c r="E662">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B663">
+        <v>1</v>
+      </c>
+      <c r="C663">
+        <v>22</v>
+      </c>
+      <c r="D663">
+        <v>52</v>
+      </c>
+      <c r="E663">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B664">
+        <v>1</v>
+      </c>
+      <c r="C664">
+        <v>23</v>
+      </c>
+      <c r="D664">
+        <v>110</v>
+      </c>
+      <c r="E664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B665">
+        <v>1</v>
+      </c>
+      <c r="C665">
+        <v>23</v>
+      </c>
+      <c r="D665">
+        <v>94</v>
+      </c>
+      <c r="E665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B666">
+        <v>1</v>
+      </c>
+      <c r="C666">
+        <v>23</v>
+      </c>
+      <c r="D666">
+        <v>73</v>
+      </c>
+      <c r="E666">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B667">
+        <v>1</v>
+      </c>
+      <c r="C667">
+        <v>23</v>
+      </c>
+      <c r="D667">
+        <v>58</v>
+      </c>
+      <c r="E667">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B668">
+        <v>1</v>
+      </c>
+      <c r="C668">
+        <v>23</v>
+      </c>
+      <c r="D668">
+        <v>99</v>
+      </c>
+      <c r="E668">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B669">
+        <v>1</v>
+      </c>
+      <c r="C669">
+        <v>24</v>
+      </c>
+      <c r="D669">
+        <v>82</v>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B670">
+        <v>1</v>
+      </c>
+      <c r="C670">
+        <v>24</v>
+      </c>
+      <c r="D670">
+        <v>63</v>
+      </c>
+      <c r="E670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B671">
+        <v>1</v>
+      </c>
+      <c r="C671">
+        <v>24</v>
+      </c>
+      <c r="D671">
+        <v>102</v>
+      </c>
+      <c r="E671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B672">
+        <v>2</v>
+      </c>
+      <c r="C672">
+        <v>25</v>
+      </c>
+      <c r="D672">
+        <v>17</v>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B673">
+        <v>2</v>
+      </c>
+      <c r="C673">
+        <v>25</v>
+      </c>
+      <c r="D673">
+        <v>7</v>
+      </c>
+      <c r="E673">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B674">
+        <v>2</v>
+      </c>
+      <c r="C674">
+        <v>25</v>
+      </c>
+      <c r="D674">
+        <v>18</v>
+      </c>
+      <c r="E674">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B675">
+        <v>2</v>
+      </c>
+      <c r="C675">
+        <v>25</v>
+      </c>
+      <c r="D675">
+        <v>30</v>
+      </c>
+      <c r="E675">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B676">
+        <v>2</v>
+      </c>
+      <c r="C676">
+        <v>25</v>
+      </c>
+      <c r="D676">
+        <v>40</v>
+      </c>
+      <c r="E676">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B677">
+        <v>2</v>
+      </c>
+      <c r="C677">
+        <v>25</v>
+      </c>
+      <c r="D677">
+        <v>42</v>
+      </c>
+      <c r="E677">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B678">
+        <v>2</v>
+      </c>
+      <c r="C678">
+        <v>26</v>
+      </c>
+      <c r="D678">
+        <v>88</v>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B679">
+        <v>2</v>
+      </c>
+      <c r="C679">
+        <v>26</v>
+      </c>
+      <c r="D679">
+        <v>71</v>
+      </c>
+      <c r="E679">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B680">
+        <v>2</v>
+      </c>
+      <c r="C680">
+        <v>26</v>
+      </c>
+      <c r="D680">
+        <v>104</v>
+      </c>
+      <c r="E680">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B681">
+        <v>2</v>
+      </c>
+      <c r="C681">
+        <v>26</v>
+      </c>
+      <c r="D681">
+        <v>77</v>
+      </c>
+      <c r="E681">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B682">
+        <v>2</v>
+      </c>
+      <c r="C682">
+        <v>27</v>
+      </c>
+      <c r="D682">
+        <v>97</v>
+      </c>
+      <c r="E682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B683">
+        <v>2</v>
+      </c>
+      <c r="C683">
+        <v>27</v>
+      </c>
+      <c r="D683">
+        <v>66</v>
+      </c>
+      <c r="E683">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B684">
+        <v>2</v>
+      </c>
+      <c r="C684">
+        <v>27</v>
+      </c>
+      <c r="D684">
+        <v>86</v>
+      </c>
+      <c r="E684">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>45067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/PAM_metadata.xlsx
+++ b/data/PAM_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/GT23_Heat_Microbiome/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayle/Desktop/Projects/GT23_Heat_Microbiome/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFC0D5-A074-5C4C-B602-7036DD946E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFAE3F0-0D81-E748-9FA8-8CEB48F521AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="500" windowWidth="21360" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-840" yWindow="460" windowWidth="21360" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="104">
   <si>
     <t>Date:</t>
   </si>
@@ -92,9 +92,6 @@
     <t>1281-11</t>
   </si>
   <si>
-    <t>1273-4(or 11)</t>
-  </si>
-  <si>
     <t>or -11</t>
   </si>
   <si>
@@ -149,22 +146,13 @@
     <t>874-11</t>
   </si>
   <si>
-    <t>129-11</t>
-  </si>
-  <si>
     <t>873-2</t>
-  </si>
-  <si>
-    <t>128-7</t>
   </si>
   <si>
     <t>1291-2</t>
   </si>
   <si>
     <t>1292-2</t>
-  </si>
-  <si>
-    <t>128-6</t>
   </si>
   <si>
     <t>1235-8</t>
@@ -206,9 +194,6 @@
     <t>1281-3</t>
   </si>
   <si>
-    <t>127-7</t>
-  </si>
-  <si>
     <t>1283-4</t>
   </si>
   <si>
@@ -222,9 +207,6 @@
   </si>
   <si>
     <t>1271-5</t>
-  </si>
-  <si>
-    <t>871-7</t>
   </si>
   <si>
     <t>873-3</t>
@@ -272,9 +254,6 @@
     <t>873-11</t>
   </si>
   <si>
-    <t>123-9</t>
-  </si>
-  <si>
     <t>1273-11</t>
   </si>
   <si>
@@ -302,15 +281,6 @@
     <t>12??-11</t>
   </si>
   <si>
-    <t>824-8</t>
-  </si>
-  <si>
-    <t>87?-7</t>
-  </si>
-  <si>
-    <t>127?-7</t>
-  </si>
-  <si>
     <t>872-11</t>
   </si>
   <si>
@@ -330,9 +300,6 @@
   </si>
   <si>
     <t>128?-8</t>
-  </si>
-  <si>
-    <t>127X-7</t>
   </si>
   <si>
     <t>12XX-2</t>
@@ -375,6 +342,9 @@
   </si>
   <si>
     <t>1281-6</t>
+  </si>
+  <si>
+    <t>1271-4 or 1273-2</t>
   </si>
 </sst>
 </file>
@@ -431,7 +401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="D685" sqref="D685"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="194" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45061</v>
       </c>
@@ -1302,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45061</v>
       </c>
@@ -1319,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45061</v>
       </c>
@@ -1336,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45061</v>
       </c>
@@ -1353,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45061</v>
       </c>
@@ -1370,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45061</v>
       </c>
@@ -1387,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45061</v>
       </c>
@@ -1404,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45061</v>
       </c>
@@ -1421,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45061</v>
       </c>
@@ -1438,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45061</v>
       </c>
@@ -1449,16 +1419,13 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45061</v>
       </c>
@@ -1469,13 +1436,13 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45061</v>
       </c>
@@ -1486,13 +1453,13 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45061</v>
       </c>
@@ -1509,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45061</v>
       </c>
@@ -1526,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45061</v>
       </c>
@@ -1543,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45061</v>
       </c>
@@ -1577,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1659,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1676,7 +1643,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1693,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -1710,7 +1677,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -1727,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -1744,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -1761,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60">
         <v>7</v>
@@ -1795,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -1812,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -1829,13 +1796,13 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45061</v>
       </c>
@@ -1852,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45061</v>
       </c>
@@ -1869,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45061</v>
       </c>
@@ -1886,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45061</v>
       </c>
@@ -1903,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45061</v>
       </c>
@@ -1920,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45061</v>
       </c>
@@ -1937,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45061</v>
       </c>
@@ -1954,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45061</v>
       </c>
@@ -1971,7 +1938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45061</v>
       </c>
@@ -1988,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45061</v>
       </c>
@@ -2005,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45061</v>
       </c>
@@ -2016,13 +1983,13 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45061</v>
       </c>
@@ -2033,16 +2000,13 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
-      <c r="F76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45061</v>
       </c>
@@ -2053,13 +2017,13 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45061</v>
       </c>
@@ -2070,16 +2034,13 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E78">
         <v>4</v>
       </c>
-      <c r="F78" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45061</v>
       </c>
@@ -2090,13 +2051,13 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45061</v>
       </c>
@@ -2107,13 +2068,10 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E80">
         <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2127,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2144,10 +2102,13 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E82">
         <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2161,13 +2122,10 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E83">
         <v>4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2181,10 +2139,13 @@
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E84">
         <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2385,7 +2346,7 @@
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2402,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -2419,7 +2380,7 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -2436,7 +2397,7 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -2453,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E100">
         <v>5</v>
@@ -2470,7 +2431,7 @@
         <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2487,7 +2448,7 @@
         <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -2504,7 +2465,7 @@
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -2521,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -2538,13 +2499,13 @@
         <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E105">
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -2558,7 +2519,7 @@
         <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2575,7 +2536,7 @@
         <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -2592,13 +2553,10 @@
         <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E108">
         <v>3</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -2612,7 +2570,7 @@
         <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -2629,7 +2587,7 @@
         <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -2646,7 +2604,7 @@
         <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E111">
         <v>6</v>
@@ -2663,7 +2621,7 @@
         <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E112">
         <v>7</v>
@@ -2680,7 +2638,7 @@
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -2697,7 +2655,7 @@
         <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -2714,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -2731,7 +2689,7 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -2748,7 +2706,7 @@
         <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -2765,7 +2723,7 @@
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E118">
         <v>6</v>
@@ -2782,7 +2740,7 @@
         <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E119">
         <v>7</v>
@@ -2918,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="D127" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -2969,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -2986,7 +2944,7 @@
         <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -3003,7 +2961,7 @@
         <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E132">
         <v>3</v>
@@ -3020,7 +2978,7 @@
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E133">
         <v>4</v>
@@ -3037,7 +2995,7 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E134">
         <v>5</v>
@@ -3054,7 +3012,7 @@
         <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E135">
         <v>6</v>
@@ -3071,7 +3029,7 @@
         <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3088,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="D137" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -3105,7 +3063,7 @@
         <v>27</v>
       </c>
       <c r="D138" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E138">
         <v>3</v>
@@ -3292,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>3</v>
@@ -3309,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E150">
         <v>4</v>
@@ -3343,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -3411,7 +3369,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -3428,7 +3386,7 @@
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -3445,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E158">
         <v>3</v>
@@ -3462,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -3479,7 +3437,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -3496,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -3513,7 +3471,7 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E162">
         <v>7</v>
@@ -3530,7 +3488,7 @@
         <v>5</v>
       </c>
       <c r="D163" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -3547,7 +3505,7 @@
         <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -3564,7 +3522,7 @@
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E165">
         <v>3</v>
@@ -3581,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E166">
         <v>4</v>
@@ -3598,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E167">
         <v>5</v>
@@ -3615,7 +3573,7 @@
         <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E168">
         <v>6</v>
@@ -3632,7 +3590,7 @@
         <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E169">
         <v>7</v>
@@ -3700,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -3819,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -3836,7 +3794,7 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E181">
         <v>2</v>
@@ -3853,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E182">
         <v>3</v>
@@ -3887,7 +3845,7 @@
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E184">
         <v>5</v>
@@ -3904,7 +3862,7 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -3921,7 +3879,7 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E186">
         <v>2</v>
@@ -3938,7 +3896,7 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E187">
         <v>3</v>
@@ -3955,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E188">
         <v>4</v>
@@ -3972,7 +3930,7 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E189">
         <v>5</v>
@@ -4040,7 +3998,7 @@
         <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E193">
         <v>4</v>
@@ -4125,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="D198" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E198">
         <v>3</v>
@@ -4142,7 +4100,7 @@
         <v>11</v>
       </c>
       <c r="D199" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E199">
         <v>4</v>
@@ -4193,7 +4151,7 @@
         <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -4210,7 +4168,7 @@
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -4227,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -4244,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -4261,7 +4219,7 @@
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -4278,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -4312,7 +4270,7 @@
         <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -4958,7 +4916,7 @@
         <v>22</v>
       </c>
       <c r="D247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -4992,7 +4950,7 @@
         <v>22</v>
       </c>
       <c r="D249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E249">
         <v>3</v>
@@ -5009,7 +4967,7 @@
         <v>22</v>
       </c>
       <c r="D250" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E250">
         <v>4</v>
@@ -5026,7 +4984,7 @@
         <v>22</v>
       </c>
       <c r="D251" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E251">
         <v>5</v>
@@ -5043,7 +5001,7 @@
         <v>23</v>
       </c>
       <c r="D252" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -5060,7 +5018,7 @@
         <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E253">
         <v>2</v>
@@ -5077,7 +5035,7 @@
         <v>23</v>
       </c>
       <c r="D254" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E254">
         <v>3</v>
@@ -5094,7 +5052,7 @@
         <v>23</v>
       </c>
       <c r="D255" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E255">
         <v>4</v>
@@ -5111,7 +5069,7 @@
         <v>23</v>
       </c>
       <c r="D256" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E256">
         <v>5</v>
@@ -5145,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="D258" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -5162,7 +5120,7 @@
         <v>24</v>
       </c>
       <c r="D259" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E259">
         <v>2</v>
@@ -5179,7 +5137,7 @@
         <v>24</v>
       </c>
       <c r="D260" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E260">
         <v>3</v>
@@ -5196,7 +5154,7 @@
         <v>24</v>
       </c>
       <c r="D261" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E261">
         <v>4</v>
@@ -5213,7 +5171,7 @@
         <v>24</v>
       </c>
       <c r="D262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E262">
         <v>5</v>
@@ -5400,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -5417,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="D274" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E274">
         <v>2</v>
@@ -5434,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E275">
         <v>3</v>
@@ -5451,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="D276" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E276">
         <v>4</v>
@@ -5502,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="D279" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E279">
         <v>2</v>
@@ -5655,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="D288" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -5672,7 +5630,7 @@
         <v>4</v>
       </c>
       <c r="D289" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E289">
         <v>2</v>
@@ -5689,7 +5647,7 @@
         <v>4</v>
       </c>
       <c r="D290" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E290">
         <v>3</v>
@@ -5706,7 +5664,7 @@
         <v>4</v>
       </c>
       <c r="D291" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E291">
         <v>4</v>
@@ -5723,7 +5681,7 @@
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E292">
         <v>5</v>
@@ -5740,7 +5698,7 @@
         <v>4</v>
       </c>
       <c r="D293" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E293">
         <v>6</v>
@@ -5757,7 +5715,7 @@
         <v>4</v>
       </c>
       <c r="D294" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E294">
         <v>7</v>
@@ -5774,7 +5732,7 @@
         <v>4</v>
       </c>
       <c r="D295" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E295">
         <v>8</v>
@@ -5791,7 +5749,7 @@
         <v>5</v>
       </c>
       <c r="D296" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -5808,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="D297" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E297">
         <v>2</v>
@@ -5825,7 +5783,7 @@
         <v>5</v>
       </c>
       <c r="D298" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E298">
         <v>3</v>
@@ -5842,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="D299" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E299">
         <v>4</v>
@@ -5859,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="D300" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E300">
         <v>5</v>
@@ -5876,7 +5834,7 @@
         <v>5</v>
       </c>
       <c r="D301" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E301">
         <v>6</v>
@@ -6046,7 +6004,7 @@
         <v>7</v>
       </c>
       <c r="D311" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -6063,7 +6021,7 @@
         <v>8</v>
       </c>
       <c r="D312" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -6080,7 +6038,7 @@
         <v>8</v>
       </c>
       <c r="D313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E313">
         <v>2</v>
@@ -6097,7 +6055,7 @@
         <v>8</v>
       </c>
       <c r="D314" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E314">
         <v>3</v>
@@ -6114,7 +6072,7 @@
         <v>8</v>
       </c>
       <c r="D315" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E315">
         <v>4</v>
@@ -6131,7 +6089,7 @@
         <v>8</v>
       </c>
       <c r="D316" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E316">
         <v>5</v>
@@ -6148,7 +6106,7 @@
         <v>9</v>
       </c>
       <c r="D317" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -6182,7 +6140,7 @@
         <v>9</v>
       </c>
       <c r="D319" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E319">
         <v>3</v>
@@ -6199,7 +6157,7 @@
         <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E320">
         <v>4</v>
@@ -6216,7 +6174,7 @@
         <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E321">
         <v>5</v>
@@ -6267,7 +6225,7 @@
         <v>10</v>
       </c>
       <c r="D324" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -6335,7 +6293,7 @@
         <v>11</v>
       </c>
       <c r="D328" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -6352,7 +6310,7 @@
         <v>11</v>
       </c>
       <c r="D329" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E329">
         <v>2</v>
@@ -6369,7 +6327,7 @@
         <v>11</v>
       </c>
       <c r="D330" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E330">
         <v>3</v>
@@ -6386,7 +6344,7 @@
         <v>11</v>
       </c>
       <c r="D331" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E331">
         <v>4</v>
@@ -6403,7 +6361,7 @@
         <v>11</v>
       </c>
       <c r="D332" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E332">
         <v>5</v>
@@ -6420,7 +6378,7 @@
         <v>11</v>
       </c>
       <c r="D333" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E333">
         <v>6</v>
@@ -6488,7 +6446,7 @@
         <v>13</v>
       </c>
       <c r="D337" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E337">
         <v>1</v>
@@ -6522,7 +6480,7 @@
         <v>13</v>
       </c>
       <c r="D339" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E339">
         <v>3</v>
@@ -6539,7 +6497,7 @@
         <v>13</v>
       </c>
       <c r="D340" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E340">
         <v>4</v>
@@ -7202,7 +7160,7 @@
         <v>22</v>
       </c>
       <c r="D379" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E379">
         <v>1</v>
@@ -7219,7 +7177,7 @@
         <v>22</v>
       </c>
       <c r="D380" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E380">
         <v>2</v>
@@ -7236,7 +7194,7 @@
         <v>22</v>
       </c>
       <c r="D381" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E381">
         <v>3</v>
@@ -7253,7 +7211,7 @@
         <v>22</v>
       </c>
       <c r="D382" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E382">
         <v>4</v>
@@ -7270,7 +7228,7 @@
         <v>22</v>
       </c>
       <c r="D383" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E383">
         <v>5</v>
@@ -7287,7 +7245,7 @@
         <v>23</v>
       </c>
       <c r="D384" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E384">
         <v>1</v>
@@ -7304,7 +7262,7 @@
         <v>23</v>
       </c>
       <c r="D385" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E385">
         <v>2</v>
@@ -7321,7 +7279,7 @@
         <v>23</v>
       </c>
       <c r="D386" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E386">
         <v>3</v>
@@ -7338,7 +7296,7 @@
         <v>23</v>
       </c>
       <c r="D387" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E387">
         <v>4</v>
@@ -7355,7 +7313,7 @@
         <v>23</v>
       </c>
       <c r="D388" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E388">
         <v>5</v>
@@ -7542,7 +7500,7 @@
         <v>26</v>
       </c>
       <c r="D399" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E399">
         <v>1</v>
@@ -7559,7 +7517,7 @@
         <v>26</v>
       </c>
       <c r="D400" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E400">
         <v>2</v>
@@ -7576,7 +7534,7 @@
         <v>26</v>
       </c>
       <c r="D401" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E401">
         <v>3</v>
@@ -7593,7 +7551,7 @@
         <v>26</v>
       </c>
       <c r="D402" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E402">
         <v>4</v>
@@ -7610,7 +7568,7 @@
         <v>26</v>
       </c>
       <c r="D403" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E403">
         <v>5</v>
@@ -7644,7 +7602,7 @@
         <v>27</v>
       </c>
       <c r="D405" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E405">
         <v>1</v>
@@ -7661,7 +7619,7 @@
         <v>27</v>
       </c>
       <c r="D406" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E406">
         <v>2</v>
@@ -7678,7 +7636,7 @@
         <v>27</v>
       </c>
       <c r="D407" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E407">
         <v>3</v>
@@ -7695,7 +7653,7 @@
         <v>27</v>
       </c>
       <c r="D408" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E408">
         <v>4</v>
@@ -7712,7 +7670,7 @@
         <v>27</v>
       </c>
       <c r="D409" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E409">
         <v>5</v>
@@ -7729,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="D410" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E410">
         <v>1</v>
@@ -7848,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="D417" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E417">
         <v>2</v>
@@ -7967,7 +7925,7 @@
         <v>3</v>
       </c>
       <c r="D424" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E424">
         <v>4</v>
@@ -7984,7 +7942,7 @@
         <v>4</v>
       </c>
       <c r="D425" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E425">
         <v>1</v>
@@ -8001,7 +7959,7 @@
         <v>4</v>
       </c>
       <c r="D426" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E426">
         <v>2</v>
@@ -8018,7 +7976,7 @@
         <v>4</v>
       </c>
       <c r="D427" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E427">
         <v>3</v>
@@ -8035,7 +7993,7 @@
         <v>4</v>
       </c>
       <c r="D428" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E428">
         <v>4</v>
@@ -8052,7 +8010,7 @@
         <v>4</v>
       </c>
       <c r="D429" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E429">
         <v>5</v>
@@ -8069,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="D430" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E430">
         <v>6</v>
@@ -8086,7 +8044,7 @@
         <v>4</v>
       </c>
       <c r="D431" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E431">
         <v>7</v>
@@ -8103,7 +8061,7 @@
         <v>5</v>
       </c>
       <c r="D432" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E432">
         <v>1</v>
@@ -8120,7 +8078,7 @@
         <v>5</v>
       </c>
       <c r="D433" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E433">
         <v>2</v>
@@ -8137,7 +8095,7 @@
         <v>5</v>
       </c>
       <c r="D434" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E434">
         <v>3</v>
@@ -8154,7 +8112,7 @@
         <v>5</v>
       </c>
       <c r="D435" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E435">
         <v>4</v>
@@ -8171,7 +8129,7 @@
         <v>5</v>
       </c>
       <c r="D436" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E436">
         <v>5</v>
@@ -8188,7 +8146,7 @@
         <v>5</v>
       </c>
       <c r="D437" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E437">
         <v>6</v>
@@ -8205,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="D438" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E438">
         <v>7</v>
@@ -8222,7 +8180,7 @@
         <v>6</v>
       </c>
       <c r="D439" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E439">
         <v>1</v>
@@ -8239,7 +8197,7 @@
         <v>6</v>
       </c>
       <c r="D440" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E440">
         <v>2</v>
@@ -8256,7 +8214,7 @@
         <v>6</v>
       </c>
       <c r="D441" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E441">
         <v>3</v>
@@ -8273,7 +8231,7 @@
         <v>6</v>
       </c>
       <c r="D442" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E442">
         <v>4</v>
@@ -8375,7 +8333,7 @@
         <v>7</v>
       </c>
       <c r="D448" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E448">
         <v>4</v>
@@ -8426,7 +8384,7 @@
         <v>8</v>
       </c>
       <c r="D451" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E451">
         <v>3</v>
@@ -8494,7 +8452,7 @@
         <v>9</v>
       </c>
       <c r="D455" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E455">
         <v>1</v>
@@ -8511,7 +8469,7 @@
         <v>9</v>
       </c>
       <c r="D456" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E456">
         <v>2</v>
@@ -8528,7 +8486,7 @@
         <v>9</v>
       </c>
       <c r="D457" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E457">
         <v>3</v>
@@ -8545,7 +8503,7 @@
         <v>9</v>
       </c>
       <c r="D458" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E458">
         <v>4</v>
@@ -8613,7 +8571,7 @@
         <v>11</v>
       </c>
       <c r="D462" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E462">
         <v>1</v>
@@ -8647,7 +8605,7 @@
         <v>11</v>
       </c>
       <c r="D464" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E464">
         <v>3</v>
@@ -8664,7 +8622,7 @@
         <v>11</v>
       </c>
       <c r="D465" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E465">
         <v>4</v>
@@ -8681,7 +8639,7 @@
         <v>11</v>
       </c>
       <c r="D466" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E466">
         <v>5</v>
@@ -8698,7 +8656,7 @@
         <v>11</v>
       </c>
       <c r="D467" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E467">
         <v>6</v>
@@ -8749,7 +8707,7 @@
         <v>12</v>
       </c>
       <c r="D470" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E470">
         <v>3</v>
@@ -8834,7 +8792,7 @@
         <v>13</v>
       </c>
       <c r="D475" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E475">
         <v>2</v>
@@ -8851,7 +8809,7 @@
         <v>13</v>
       </c>
       <c r="D476" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E476">
         <v>3</v>
@@ -8868,7 +8826,7 @@
         <v>13</v>
       </c>
       <c r="D477" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E477">
         <v>4</v>
@@ -8885,7 +8843,7 @@
         <v>13</v>
       </c>
       <c r="D478" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E478">
         <v>5</v>
@@ -9361,7 +9319,7 @@
         <v>20</v>
       </c>
       <c r="D506" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E506">
         <v>1</v>
@@ -9378,7 +9336,7 @@
         <v>20</v>
       </c>
       <c r="D507" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E507">
         <v>2</v>
@@ -9395,7 +9353,7 @@
         <v>20</v>
       </c>
       <c r="D508" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E508">
         <v>3</v>
@@ -9412,7 +9370,7 @@
         <v>20</v>
       </c>
       <c r="D509" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E509">
         <v>4</v>
@@ -9429,7 +9387,7 @@
         <v>20</v>
       </c>
       <c r="D510" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E510">
         <v>5</v>
@@ -9446,7 +9404,7 @@
         <v>21</v>
       </c>
       <c r="D511" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E511">
         <v>1</v>
@@ -9463,7 +9421,7 @@
         <v>21</v>
       </c>
       <c r="D512" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E512">
         <v>2</v>
@@ -9480,7 +9438,7 @@
         <v>21</v>
       </c>
       <c r="D513" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E513">
         <v>3</v>
@@ -9497,7 +9455,7 @@
         <v>21</v>
       </c>
       <c r="D514" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E514">
         <v>4</v>
@@ -9514,13 +9472,13 @@
         <v>21</v>
       </c>
       <c r="D515" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E515">
         <v>5</v>
       </c>
       <c r="F515" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -9795,7 +9753,7 @@
         <v>6</v>
       </c>
       <c r="F531" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -9894,7 +9852,7 @@
         <v>26</v>
       </c>
       <c r="D537" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E537">
         <v>1</v>
@@ -9911,7 +9869,7 @@
         <v>26</v>
       </c>
       <c r="D538" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E538">
         <v>2</v>
@@ -9928,7 +9886,7 @@
         <v>26</v>
       </c>
       <c r="D539" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E539">
         <v>3</v>
@@ -9945,7 +9903,7 @@
         <v>26</v>
       </c>
       <c r="D540" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E540">
         <v>4</v>
@@ -9962,7 +9920,7 @@
         <v>26</v>
       </c>
       <c r="D541" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E541">
         <v>5</v>
@@ -9979,7 +9937,7 @@
         <v>27</v>
       </c>
       <c r="D542" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E542">
         <v>1</v>
@@ -9996,7 +9954,7 @@
         <v>27</v>
       </c>
       <c r="D543" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E543">
         <v>2</v>
@@ -10013,7 +9971,7 @@
         <v>27</v>
       </c>
       <c r="D544" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E544">
         <v>3</v>
@@ -10030,7 +9988,7 @@
         <v>27</v>
       </c>
       <c r="D545" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E545">
         <v>4</v>
@@ -10047,7 +10005,7 @@
         <v>27</v>
       </c>
       <c r="D546" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E546">
         <v>5</v>
@@ -10081,7 +10039,7 @@
         <v>1</v>
       </c>
       <c r="D548" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E548">
         <v>2</v>
@@ -10115,7 +10073,7 @@
         <v>1</v>
       </c>
       <c r="D550" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E550">
         <v>4</v>
@@ -10183,7 +10141,7 @@
         <v>2</v>
       </c>
       <c r="D554" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E554">
         <v>3</v>
@@ -10251,7 +10209,7 @@
         <v>3</v>
       </c>
       <c r="D558" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E558">
         <v>1</v>
@@ -10336,7 +10294,7 @@
         <v>4</v>
       </c>
       <c r="D563" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E563">
         <v>1</v>
@@ -10353,7 +10311,7 @@
         <v>4</v>
       </c>
       <c r="D564" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E564">
         <v>2</v>
@@ -10370,7 +10328,7 @@
         <v>4</v>
       </c>
       <c r="D565" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E565">
         <v>3</v>
@@ -10387,7 +10345,7 @@
         <v>4</v>
       </c>
       <c r="D566" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E566">
         <v>4</v>
@@ -10404,7 +10362,7 @@
         <v>4</v>
       </c>
       <c r="D567" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E567">
         <v>5</v>
@@ -10421,7 +10379,7 @@
         <v>4</v>
       </c>
       <c r="D568" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E568">
         <v>6</v>
@@ -10438,7 +10396,7 @@
         <v>4</v>
       </c>
       <c r="D569" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E569">
         <v>7</v>
@@ -10455,7 +10413,7 @@
         <v>5</v>
       </c>
       <c r="D570" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E570">
         <v>1</v>
@@ -10472,7 +10430,7 @@
         <v>5</v>
       </c>
       <c r="D571" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E571">
         <v>2</v>
@@ -10489,7 +10447,7 @@
         <v>5</v>
       </c>
       <c r="D572" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E572">
         <v>3</v>
@@ -10506,7 +10464,7 @@
         <v>5</v>
       </c>
       <c r="D573" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E573">
         <v>4</v>
@@ -10523,7 +10481,7 @@
         <v>5</v>
       </c>
       <c r="D574" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E574">
         <v>5</v>
@@ -10540,7 +10498,7 @@
         <v>5</v>
       </c>
       <c r="D575" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E575">
         <v>6</v>
@@ -10557,7 +10515,7 @@
         <v>5</v>
       </c>
       <c r="D576" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E576">
         <v>7</v>
@@ -10608,7 +10566,7 @@
         <v>6</v>
       </c>
       <c r="D579" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E579">
         <v>3</v>
@@ -10659,7 +10617,7 @@
         <v>7</v>
       </c>
       <c r="D582" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E582">
         <v>1</v>
@@ -10693,7 +10651,7 @@
         <v>7</v>
       </c>
       <c r="D584" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E584">
         <v>3</v>
@@ -10727,7 +10685,7 @@
         <v>7</v>
       </c>
       <c r="D586" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E586">
         <v>5</v>
@@ -10744,7 +10702,7 @@
         <v>8</v>
       </c>
       <c r="D587" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E587">
         <v>1</v>
@@ -10761,7 +10719,7 @@
         <v>8</v>
       </c>
       <c r="D588" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E588">
         <v>2</v>
@@ -10778,7 +10736,7 @@
         <v>8</v>
       </c>
       <c r="D589" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E589">
         <v>3</v>
@@ -10795,7 +10753,7 @@
         <v>8</v>
       </c>
       <c r="D590" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E590">
         <v>4</v>
@@ -10812,7 +10770,7 @@
         <v>8</v>
       </c>
       <c r="D591" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E591">
         <v>5</v>
@@ -10897,7 +10855,7 @@
         <v>9</v>
       </c>
       <c r="D596" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E596">
         <v>5</v>
@@ -10999,7 +10957,7 @@
         <v>10</v>
       </c>
       <c r="D602" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E602">
         <v>6</v>
@@ -11016,7 +10974,7 @@
         <v>11</v>
       </c>
       <c r="D603" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E603">
         <v>1</v>
@@ -11033,7 +10991,7 @@
         <v>11</v>
       </c>
       <c r="D604" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E604">
         <v>2</v>
@@ -11050,7 +11008,7 @@
         <v>11</v>
       </c>
       <c r="D605" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E605">
         <v>3</v>
@@ -11067,7 +11025,7 @@
         <v>11</v>
       </c>
       <c r="D606" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E606">
         <v>4</v>
@@ -11084,7 +11042,7 @@
         <v>11</v>
       </c>
       <c r="D607" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E607">
         <v>5</v>
@@ -11101,7 +11059,7 @@
         <v>11</v>
       </c>
       <c r="D608" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E608">
         <v>6</v>
@@ -11118,7 +11076,7 @@
         <v>12</v>
       </c>
       <c r="D609" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E609">
         <v>1</v>
@@ -11135,7 +11093,7 @@
         <v>12</v>
       </c>
       <c r="D610" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E610">
         <v>2</v>
@@ -11169,7 +11127,7 @@
         <v>12</v>
       </c>
       <c r="D612" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E612">
         <v>4</v>
@@ -11424,7 +11382,7 @@
         <v>16</v>
       </c>
       <c r="D627" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E627">
         <v>1</v>
@@ -11441,7 +11399,7 @@
         <v>16</v>
       </c>
       <c r="D628" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E628">
         <v>2</v>
@@ -11458,7 +11416,7 @@
         <v>16</v>
       </c>
       <c r="D629" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E629">
         <v>3</v>
@@ -11475,7 +11433,7 @@
         <v>16</v>
       </c>
       <c r="D630" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E630">
         <v>4</v>
@@ -11492,7 +11450,7 @@
         <v>16</v>
       </c>
       <c r="D631" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E631">
         <v>5</v>
@@ -11509,7 +11467,7 @@
         <v>17</v>
       </c>
       <c r="D632" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E632">
         <v>1</v>
@@ -11526,7 +11484,7 @@
         <v>17</v>
       </c>
       <c r="D633" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E633">
         <v>2</v>
@@ -11543,7 +11501,7 @@
         <v>17</v>
       </c>
       <c r="D634" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E634">
         <v>3</v>
@@ -11560,7 +11518,7 @@
         <v>17</v>
       </c>
       <c r="D635" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E635">
         <v>4</v>
@@ -11577,7 +11535,7 @@
         <v>17</v>
       </c>
       <c r="D636" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E636">
         <v>5</v>
@@ -11594,7 +11552,7 @@
         <v>18</v>
       </c>
       <c r="D637" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E637">
         <v>1</v>
@@ -11611,7 +11569,7 @@
         <v>18</v>
       </c>
       <c r="D638" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E638">
         <v>2</v>
@@ -11628,7 +11586,7 @@
         <v>18</v>
       </c>
       <c r="D639" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E639">
         <v>3</v>
@@ -11645,7 +11603,7 @@
         <v>18</v>
       </c>
       <c r="D640" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E640">
         <v>4</v>
@@ -11662,7 +11620,7 @@
         <v>18</v>
       </c>
       <c r="D641" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E641">
         <v>5</v>
@@ -11679,7 +11637,7 @@
         <v>19</v>
       </c>
       <c r="D642" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E642">
         <v>1</v>
@@ -11696,7 +11654,7 @@
         <v>19</v>
       </c>
       <c r="D643" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E643">
         <v>2</v>
@@ -11713,7 +11671,7 @@
         <v>19</v>
       </c>
       <c r="D644" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E644">
         <v>3</v>
@@ -11730,7 +11688,7 @@
         <v>19</v>
       </c>
       <c r="D645" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E645">
         <v>4</v>
@@ -11747,7 +11705,7 @@
         <v>19</v>
       </c>
       <c r="D646" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E646">
         <v>5</v>
